--- a/测试单-电子书_160901.xlsx
+++ b/测试单-电子书_160901.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="784"/>
@@ -14,14 +14,14 @@
     <sheet name="版本记录" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">txt!$A$2:$O$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">txt!$A$2:$O$83</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="157">
   <si>
     <t>编号</t>
   </si>
@@ -2845,6 +2845,26 @@
   </si>
   <si>
     <t>【背景音乐】目前好像没有自动创建文件夹。我测试时自己建的文件夹然后复制文件的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainListAdapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义一个可以滚动的TextView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏治平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们的机器比较特殊，没有插入外部SD卡，居然也能得到路径。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3231,7 +3251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3602,9 +3622,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3960,13 +3977,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F95" sqref="F95"/>
+      <selection pane="bottomRight" activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3979,9 +3997,11 @@
     <col min="7" max="7" width="11.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
-    <col min="10" max="12" width="9" style="3"/>
-    <col min="13" max="13" width="23.75" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="10" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="17.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="27.75" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
@@ -4052,10 +4072,10 @@
       <c r="E3" s="25">
         <v>42555</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="130" t="s">
         <v>97</v>
       </c>
       <c r="H3" s="23"/>
@@ -4068,7 +4088,7 @@
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" s="92" customFormat="1" ht="81">
-      <c r="A4" s="126">
+      <c r="A4" s="125">
         <v>2</v>
       </c>
       <c r="B4" s="85" t="s">
@@ -4101,7 +4121,7 @@
       <c r="O4" s="91"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="54">
-      <c r="A5" s="126">
+      <c r="A5" s="125">
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -4116,13 +4136,13 @@
       <c r="E5" s="25">
         <v>42555</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="126" t="s">
         <v>66</v>
       </c>
       <c r="I5" s="28"/>
@@ -4134,7 +4154,7 @@
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" ht="27">
-      <c r="A6" s="126">
+      <c r="A6" s="125">
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -4149,7 +4169,7 @@
       <c r="E6" s="25">
         <v>42555</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="129" t="s">
         <v>87</v>
       </c>
       <c r="G6" s="27"/>
@@ -4163,7 +4183,7 @@
       <c r="O6" s="29"/>
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1" ht="27">
-      <c r="A7" s="126">
+      <c r="A7" s="125">
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -4178,7 +4198,7 @@
       <c r="E7" s="25">
         <v>42555</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="129" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="27"/>
@@ -4192,7 +4212,7 @@
       <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:15" ht="27">
-      <c r="A8" s="126">
+      <c r="A8" s="125">
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -4207,7 +4227,7 @@
       <c r="E8" s="25">
         <v>42555</v>
       </c>
-      <c r="F8" s="130" t="s">
+      <c r="F8" s="129" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="27" t="s">
@@ -4223,7 +4243,7 @@
       <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:15" s="92" customFormat="1" ht="40.5">
-      <c r="A9" s="126">
+      <c r="A9" s="125">
         <v>7</v>
       </c>
       <c r="B9" s="85" t="s">
@@ -4256,7 +4276,7 @@
       <c r="O9" s="91"/>
     </row>
     <row r="10" spans="1:15" s="9" customFormat="1" ht="40.5">
-      <c r="A10" s="126">
+      <c r="A10" s="125">
         <v>8</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -4271,10 +4291,10 @@
       <c r="E10" s="25">
         <v>42555</v>
       </c>
-      <c r="F10" s="130" t="s">
+      <c r="F10" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="131" t="s">
+      <c r="G10" s="130" t="s">
         <v>97</v>
       </c>
       <c r="H10" s="23"/>
@@ -4286,43 +4306,43 @@
       <c r="N10" s="24"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:15" s="141" customFormat="1" ht="40.5">
-      <c r="A11" s="126">
+    <row r="11" spans="1:15" s="140" customFormat="1" ht="40.5">
+      <c r="A11" s="125">
         <v>9</v>
       </c>
-      <c r="B11" s="134" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="134" t="s">
+      <c r="B11" s="133" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="135">
+      <c r="D11" s="134">
         <v>42552</v>
       </c>
-      <c r="E11" s="136">
+      <c r="E11" s="135">
         <v>42555</v>
       </c>
-      <c r="F11" s="137" t="s">
+      <c r="F11" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="138"/>
-      <c r="H11" s="134" t="s">
+      <c r="G11" s="137"/>
+      <c r="H11" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="139"/>
-      <c r="J11" s="135">
+      <c r="I11" s="138"/>
+      <c r="J11" s="134">
         <v>42610</v>
       </c>
-      <c r="K11" s="134"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138" t="s">
+      <c r="K11" s="133"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="N11" s="135"/>
-      <c r="O11" s="140"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="139"/>
     </row>
     <row r="12" spans="1:15" s="92" customFormat="1" ht="40.5">
-      <c r="A12" s="126">
+      <c r="A12" s="125">
         <v>10</v>
       </c>
       <c r="B12" s="85" t="s">
@@ -4355,7 +4375,7 @@
       <c r="O12" s="91"/>
     </row>
     <row r="13" spans="1:15" s="92" customFormat="1" ht="27">
-      <c r="A13" s="126">
+      <c r="A13" s="125">
         <v>11</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -4388,7 +4408,7 @@
       <c r="O13" s="91"/>
     </row>
     <row r="14" spans="1:15" ht="67.5">
-      <c r="A14" s="126">
+      <c r="A14" s="125">
         <v>12</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -4403,7 +4423,7 @@
       <c r="E14" s="25">
         <v>42555</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="F14" s="129" t="s">
         <v>73</v>
       </c>
       <c r="G14" s="27"/>
@@ -4417,7 +4437,7 @@
       <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15" ht="67.5">
-      <c r="A15" s="126">
+      <c r="A15" s="125">
         <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -4432,7 +4452,7 @@
       <c r="E15" s="25">
         <v>42555</v>
       </c>
-      <c r="F15" s="130" t="s">
+      <c r="F15" s="129" t="s">
         <v>72</v>
       </c>
       <c r="G15" s="27"/>
@@ -4446,7 +4466,7 @@
       <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" ht="27">
-      <c r="A16" s="126">
+      <c r="A16" s="125">
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -4461,7 +4481,7 @@
       <c r="E16" s="25">
         <v>42555</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="129" t="s">
         <v>74</v>
       </c>
       <c r="G16" s="27"/>
@@ -4475,7 +4495,7 @@
       <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" ht="40.5">
-      <c r="A17" s="126">
+      <c r="A17" s="125">
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -4490,7 +4510,7 @@
       <c r="E17" s="25">
         <v>42507</v>
       </c>
-      <c r="F17" s="130" t="s">
+      <c r="F17" s="129" t="s">
         <v>75</v>
       </c>
       <c r="G17" s="27"/>
@@ -4504,7 +4524,7 @@
       <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15" ht="27">
-      <c r="A18" s="126">
+      <c r="A18" s="125">
         <v>16</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -4519,7 +4539,7 @@
       <c r="E18" s="25">
         <v>42555</v>
       </c>
-      <c r="F18" s="130" t="s">
+      <c r="F18" s="129" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="27"/>
@@ -4533,7 +4553,7 @@
       <c r="O18" s="29"/>
     </row>
     <row r="19" spans="1:15" s="67" customFormat="1" ht="94.5">
-      <c r="A19" s="126">
+      <c r="A19" s="125">
         <v>17</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -4548,7 +4568,7 @@
       <c r="E19" s="25">
         <v>42555</v>
       </c>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="129" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="27"/>
@@ -4562,7 +4582,7 @@
       <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" s="67" customFormat="1" ht="54">
-      <c r="A20" s="126">
+      <c r="A20" s="125">
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -4577,7 +4597,7 @@
       <c r="E20" s="25">
         <v>42555</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="129" t="s">
         <v>78</v>
       </c>
       <c r="G20" s="27"/>
@@ -4591,7 +4611,7 @@
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:15" s="67" customFormat="1" ht="162">
-      <c r="A21" s="126">
+      <c r="A21" s="125">
         <v>19</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -4606,7 +4626,7 @@
       <c r="E21" s="25">
         <v>42555</v>
       </c>
-      <c r="F21" s="130" t="s">
+      <c r="F21" s="129" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="27"/>
@@ -4620,7 +4640,7 @@
       <c r="O21" s="29"/>
     </row>
     <row r="22" spans="1:15" ht="81">
-      <c r="A22" s="126">
+      <c r="A22" s="125">
         <v>20</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -4635,7 +4655,7 @@
       <c r="E22" s="25">
         <v>42555</v>
       </c>
-      <c r="F22" s="130" t="s">
+      <c r="F22" s="129" t="s">
         <v>81</v>
       </c>
       <c r="G22" s="27"/>
@@ -4649,7 +4669,7 @@
       <c r="O22" s="29"/>
     </row>
     <row r="23" spans="1:15" ht="108">
-      <c r="A23" s="126">
+      <c r="A23" s="125">
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -4664,7 +4684,7 @@
       <c r="E23" s="25">
         <v>42555</v>
       </c>
-      <c r="F23" s="130" t="s">
+      <c r="F23" s="129" t="s">
         <v>82</v>
       </c>
       <c r="G23" s="27"/>
@@ -4678,7 +4698,7 @@
       <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="40.5">
-      <c r="A24" s="126">
+      <c r="A24" s="125">
         <v>22</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -4693,7 +4713,7 @@
       <c r="E24" s="25">
         <v>42555</v>
       </c>
-      <c r="F24" s="130" t="s">
+      <c r="F24" s="129" t="s">
         <v>83</v>
       </c>
       <c r="G24" s="27"/>
@@ -4707,7 +4727,7 @@
       <c r="O24" s="29"/>
     </row>
     <row r="25" spans="1:15" ht="40.5">
-      <c r="A25" s="126">
+      <c r="A25" s="125">
         <v>23</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -4722,7 +4742,7 @@
       <c r="E25" s="25">
         <v>42555</v>
       </c>
-      <c r="F25" s="130" t="s">
+      <c r="F25" s="129" t="s">
         <v>84</v>
       </c>
       <c r="G25" s="27"/>
@@ -4736,7 +4756,7 @@
       <c r="O25" s="29"/>
     </row>
     <row r="26" spans="1:15" s="92" customFormat="1" ht="54">
-      <c r="A26" s="126">
+      <c r="A26" s="125">
         <v>24</v>
       </c>
       <c r="B26" s="85" t="s">
@@ -4769,7 +4789,7 @@
       <c r="O26" s="91"/>
     </row>
     <row r="27" spans="1:15" ht="81">
-      <c r="A27" s="126">
+      <c r="A27" s="125">
         <v>25</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -4784,7 +4804,7 @@
       <c r="E27" s="25">
         <v>42555</v>
       </c>
-      <c r="F27" s="130" t="s">
+      <c r="F27" s="129" t="s">
         <v>88</v>
       </c>
       <c r="G27" s="27"/>
@@ -4798,7 +4818,7 @@
       <c r="O27" s="29"/>
     </row>
     <row r="28" spans="1:15" ht="189">
-      <c r="A28" s="126">
+      <c r="A28" s="125">
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -4813,7 +4833,7 @@
       <c r="E28" s="25">
         <v>42555</v>
       </c>
-      <c r="F28" s="130" t="s">
+      <c r="F28" s="129" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="27"/>
@@ -4827,7 +4847,7 @@
       <c r="O28" s="29"/>
     </row>
     <row r="29" spans="1:15" s="67" customFormat="1" ht="108">
-      <c r="A29" s="126">
+      <c r="A29" s="125">
         <v>27</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -4856,7 +4876,7 @@
       <c r="O29" s="29"/>
     </row>
     <row r="30" spans="1:15" ht="54">
-      <c r="A30" s="126">
+      <c r="A30" s="125">
         <v>28</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -4871,10 +4891,10 @@
       <c r="E30" s="25">
         <v>42555</v>
       </c>
-      <c r="F30" s="130" t="s">
+      <c r="F30" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="131" t="s">
+      <c r="G30" s="130" t="s">
         <v>85</v>
       </c>
       <c r="H30" s="23"/>
@@ -4887,7 +4907,7 @@
       <c r="O30" s="29"/>
     </row>
     <row r="31" spans="1:15" ht="54">
-      <c r="A31" s="126">
+      <c r="A31" s="125">
         <v>29</v>
       </c>
       <c r="B31" s="23" t="s">
@@ -4902,7 +4922,7 @@
       <c r="E31" s="25">
         <v>42507</v>
       </c>
-      <c r="F31" s="130" t="s">
+      <c r="F31" s="129" t="s">
         <v>118</v>
       </c>
       <c r="G31" s="27"/>
@@ -4916,7 +4936,7 @@
       <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:15" ht="54">
-      <c r="A32" s="126">
+      <c r="A32" s="125">
         <v>30</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -4931,7 +4951,7 @@
       <c r="E32" s="25">
         <v>42507</v>
       </c>
-      <c r="F32" s="130" t="s">
+      <c r="F32" s="129" t="s">
         <v>119</v>
       </c>
       <c r="G32" s="27"/>
@@ -4945,7 +4965,7 @@
       <c r="O32" s="29"/>
     </row>
     <row r="33" spans="1:15" ht="54">
-      <c r="A33" s="126">
+      <c r="A33" s="125">
         <v>31</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -4960,7 +4980,7 @@
       <c r="E33" s="25">
         <v>42555</v>
       </c>
-      <c r="F33" s="130" t="s">
+      <c r="F33" s="129" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="27"/>
@@ -4974,7 +4994,7 @@
       <c r="O33" s="29"/>
     </row>
     <row r="34" spans="1:15" ht="94.5">
-      <c r="A34" s="126">
+      <c r="A34" s="125">
         <v>32</v>
       </c>
       <c r="B34" s="23" t="s">
@@ -4989,7 +5009,7 @@
       <c r="E34" s="25">
         <v>42555</v>
       </c>
-      <c r="F34" s="130" t="s">
+      <c r="F34" s="129" t="s">
         <v>91</v>
       </c>
       <c r="G34" s="27"/>
@@ -5003,7 +5023,7 @@
       <c r="O34" s="29"/>
     </row>
     <row r="35" spans="1:15" s="82" customFormat="1" ht="67.5">
-      <c r="A35" s="126">
+      <c r="A35" s="125">
         <v>33</v>
       </c>
       <c r="B35" s="23" t="s">
@@ -5018,7 +5038,7 @@
       <c r="E35" s="80">
         <v>42507</v>
       </c>
-      <c r="F35" s="130" t="s">
+      <c r="F35" s="129" t="s">
         <v>120</v>
       </c>
       <c r="G35" s="27"/>
@@ -5032,7 +5052,7 @@
       <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="126">
+      <c r="A36" s="125">
         <v>34</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -5047,7 +5067,7 @@
       <c r="E36" s="25">
         <v>42555</v>
       </c>
-      <c r="F36" s="130" t="s">
+      <c r="F36" s="129" t="s">
         <v>92</v>
       </c>
       <c r="G36" s="27" t="s">
@@ -5063,7 +5083,7 @@
       <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="27">
-      <c r="A37" s="126">
+      <c r="A37" s="125">
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -5078,7 +5098,7 @@
       <c r="E37" s="25">
         <v>42555</v>
       </c>
-      <c r="F37" s="130" t="s">
+      <c r="F37" s="129" t="s">
         <v>93</v>
       </c>
       <c r="G37" s="27"/>
@@ -5092,7 +5112,7 @@
       <c r="O37" s="29"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="126">
+      <c r="A38" s="125">
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -5123,7 +5143,7 @@
       <c r="O38" s="29"/>
     </row>
     <row r="39" spans="1:15" s="92" customFormat="1">
-      <c r="A39" s="126">
+      <c r="A39" s="125">
         <v>37</v>
       </c>
       <c r="B39" s="85" t="s">
@@ -5156,7 +5176,7 @@
       <c r="O39" s="91"/>
     </row>
     <row r="40" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A40" s="126">
+      <c r="A40" s="125">
         <v>38</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -5171,10 +5191,10 @@
       <c r="E40" s="25">
         <v>42555</v>
       </c>
-      <c r="F40" s="130" t="s">
+      <c r="F40" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="131"/>
+      <c r="G40" s="130"/>
       <c r="H40" s="23"/>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
@@ -5185,7 +5205,7 @@
       <c r="O40" s="29"/>
     </row>
     <row r="41" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A41" s="126">
+      <c r="A41" s="125">
         <v>39</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -5200,7 +5220,7 @@
       <c r="E41" s="25">
         <v>42555</v>
       </c>
-      <c r="F41" s="130" t="s">
+      <c r="F41" s="129" t="s">
         <v>109</v>
       </c>
       <c r="G41" s="27"/>
@@ -5214,7 +5234,7 @@
       <c r="O41" s="29"/>
     </row>
     <row r="42" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A42" s="126">
+      <c r="A42" s="125">
         <v>40</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -5229,10 +5249,10 @@
       <c r="E42" s="25">
         <v>42555</v>
       </c>
-      <c r="F42" s="130" t="s">
+      <c r="F42" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="131" t="s">
+      <c r="G42" s="130" t="s">
         <v>97</v>
       </c>
       <c r="H42" s="23"/>
@@ -5245,7 +5265,7 @@
       <c r="O42" s="29"/>
     </row>
     <row r="43" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A43" s="126">
+      <c r="A43" s="125">
         <v>41</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -5260,10 +5280,10 @@
       <c r="E43" s="25">
         <v>42555</v>
       </c>
-      <c r="F43" s="130" t="s">
+      <c r="F43" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G43" s="131" t="s">
+      <c r="G43" s="130" t="s">
         <v>97</v>
       </c>
       <c r="H43" s="23"/>
@@ -5276,7 +5296,7 @@
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A44" s="126">
+      <c r="A44" s="125">
         <v>42</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -5291,7 +5311,7 @@
       <c r="E44" s="25">
         <v>42555</v>
       </c>
-      <c r="F44" s="130" t="s">
+      <c r="F44" s="129" t="s">
         <v>100</v>
       </c>
       <c r="G44" s="27"/>
@@ -5305,7 +5325,7 @@
       <c r="O44" s="29"/>
     </row>
     <row r="45" spans="1:15" s="67" customFormat="1" ht="54">
-      <c r="A45" s="126">
+      <c r="A45" s="125">
         <v>43</v>
       </c>
       <c r="B45" s="23" t="s">
@@ -5320,7 +5340,7 @@
       <c r="E45" s="25">
         <v>42555</v>
       </c>
-      <c r="F45" s="130" t="s">
+      <c r="F45" s="129" t="s">
         <v>122</v>
       </c>
       <c r="G45" s="27"/>
@@ -5333,7 +5353,7 @@
       <c r="O45" s="29"/>
     </row>
     <row r="46" spans="1:15" s="67" customFormat="1" ht="81">
-      <c r="A46" s="126">
+      <c r="A46" s="125">
         <v>44</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -5348,7 +5368,7 @@
       <c r="E46" s="25">
         <v>42555</v>
       </c>
-      <c r="F46" s="130" t="s">
+      <c r="F46" s="129" t="s">
         <v>101</v>
       </c>
       <c r="G46" s="27"/>
@@ -5362,7 +5382,7 @@
       <c r="O46" s="29"/>
     </row>
     <row r="47" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A47" s="126">
+      <c r="A47" s="125">
         <v>45</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -5377,7 +5397,7 @@
       <c r="E47" s="25">
         <v>42555</v>
       </c>
-      <c r="F47" s="130" t="s">
+      <c r="F47" s="129" t="s">
         <v>102</v>
       </c>
       <c r="G47" s="27"/>
@@ -5391,7 +5411,7 @@
       <c r="O47" s="29"/>
     </row>
     <row r="48" spans="1:15" s="67" customFormat="1" ht="67.5">
-      <c r="A48" s="126">
+      <c r="A48" s="125">
         <v>46</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -5406,10 +5426,10 @@
       <c r="E48" s="25">
         <v>42558</v>
       </c>
-      <c r="F48" s="130" t="s">
+      <c r="F48" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="131" t="s">
+      <c r="G48" s="130" t="s">
         <v>97</v>
       </c>
       <c r="H48" s="23"/>
@@ -5422,7 +5442,7 @@
       <c r="O48" s="29"/>
     </row>
     <row r="49" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A49" s="126">
+      <c r="A49" s="125">
         <v>47</v>
       </c>
       <c r="B49" s="23" t="s">
@@ -5437,7 +5457,7 @@
       <c r="E49" s="25">
         <v>42558</v>
       </c>
-      <c r="F49" s="130" t="s">
+      <c r="F49" s="129" t="s">
         <v>105</v>
       </c>
       <c r="G49" s="27"/>
@@ -5451,7 +5471,7 @@
       <c r="O49" s="29"/>
     </row>
     <row r="50" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A50" s="126">
+      <c r="A50" s="125">
         <v>48</v>
       </c>
       <c r="B50" s="23" t="s">
@@ -5466,10 +5486,10 @@
       <c r="E50" s="25">
         <v>42558</v>
       </c>
-      <c r="F50" s="130" t="s">
+      <c r="F50" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="131" t="s">
+      <c r="G50" s="130" t="s">
         <v>97</v>
       </c>
       <c r="H50" s="23"/>
@@ -5482,7 +5502,7 @@
       <c r="O50" s="29"/>
     </row>
     <row r="51" spans="1:15" s="92" customFormat="1" ht="27">
-      <c r="A51" s="126">
+      <c r="A51" s="125">
         <v>49</v>
       </c>
       <c r="B51" s="85" t="s">
@@ -5514,494 +5534,504 @@
       <c r="N51" s="86"/>
       <c r="O51" s="91"/>
     </row>
-    <row r="52" spans="1:15" s="125" customFormat="1">
-      <c r="A52" s="126">
+    <row r="52" spans="1:15" s="124" customFormat="1" ht="27" hidden="1">
+      <c r="A52" s="125">
         <v>50</v>
       </c>
-      <c r="B52" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="127" t="s">
+      <c r="B52" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="109">
         <v>42610</v>
       </c>
-      <c r="E52" s="129">
+      <c r="E52" s="128">
         <v>42612</v>
       </c>
-      <c r="F52" s="130" t="s">
+      <c r="F52" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="G52" s="131"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="127"/>
-      <c r="L52" s="131"/>
-      <c r="M52" s="131"/>
-      <c r="N52" s="128"/>
-      <c r="O52" s="133"/>
-    </row>
-    <row r="53" spans="1:15" s="125" customFormat="1">
-      <c r="A53" s="126">
+      <c r="G52" s="130"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="126" t="s">
+        <v>152</v>
+      </c>
+      <c r="L52" s="130" t="s">
+        <v>153</v>
+      </c>
+      <c r="M52" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="N52" s="127">
+        <v>42616</v>
+      </c>
+      <c r="O52" s="132" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="124" customFormat="1">
+      <c r="A53" s="125">
         <v>51</v>
       </c>
-      <c r="B53" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="127" t="s">
+      <c r="B53" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="109">
         <v>42610</v>
       </c>
-      <c r="E53" s="129">
+      <c r="E53" s="128">
         <v>42612</v>
       </c>
-      <c r="F53" s="142" t="s">
+      <c r="F53" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="131"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="132"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="133"/>
-    </row>
-    <row r="54" spans="1:15" s="125" customFormat="1">
-      <c r="A54" s="126">
+      <c r="G53" s="130"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="127"/>
+      <c r="O53" s="132"/>
+    </row>
+    <row r="54" spans="1:15" s="124" customFormat="1">
+      <c r="A54" s="125">
         <v>52</v>
       </c>
-      <c r="B54" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="127" t="s">
+      <c r="B54" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="109">
         <v>42610</v>
       </c>
-      <c r="E54" s="129">
+      <c r="E54" s="128">
         <v>42612</v>
       </c>
-      <c r="F54" s="130" t="s">
+      <c r="F54" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="131" t="s">
+      <c r="G54" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="127"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="127"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="131"/>
-      <c r="N54" s="128"/>
-      <c r="O54" s="133"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="127"/>
+      <c r="O54" s="132"/>
     </row>
     <row r="55" spans="1:15" s="118" customFormat="1">
-      <c r="A55" s="126">
+      <c r="A55" s="125">
         <v>53</v>
       </c>
-      <c r="B55" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="127" t="s">
+      <c r="B55" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="109">
         <v>42610</v>
       </c>
-      <c r="E55" s="129">
+      <c r="E55" s="128">
         <v>42612</v>
       </c>
-      <c r="F55" s="130" t="s">
+      <c r="F55" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="131" t="s">
+      <c r="G55" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H55" s="127"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="127"/>
-      <c r="L55" s="131"/>
-      <c r="M55" s="131"/>
-      <c r="N55" s="128"/>
-      <c r="O55" s="133"/>
-    </row>
-    <row r="56" spans="1:15" s="125" customFormat="1" ht="27">
-      <c r="A56" s="126">
+      <c r="H55" s="126"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="127"/>
+      <c r="O55" s="132"/>
+    </row>
+    <row r="56" spans="1:15" s="124" customFormat="1" ht="27">
+      <c r="A56" s="125">
         <v>54</v>
       </c>
-      <c r="B56" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="127" t="s">
+      <c r="B56" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="109">
         <v>42610</v>
       </c>
-      <c r="E56" s="129">
+      <c r="E56" s="128">
         <v>42612</v>
       </c>
-      <c r="F56" s="130" t="s">
+      <c r="F56" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="G56" s="131"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="131"/>
-      <c r="M56" s="131"/>
-      <c r="N56" s="128"/>
-      <c r="O56" s="133"/>
-    </row>
-    <row r="57" spans="1:15" s="125" customFormat="1" ht="27">
-      <c r="A57" s="126">
+      <c r="G56" s="130"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="127"/>
+      <c r="O56" s="132"/>
+    </row>
+    <row r="57" spans="1:15" s="124" customFormat="1" ht="27">
+      <c r="A57" s="125">
         <v>55</v>
       </c>
-      <c r="B57" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="127" t="s">
+      <c r="B57" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="109">
         <v>42610</v>
       </c>
-      <c r="E57" s="129">
+      <c r="E57" s="128">
         <v>42612</v>
       </c>
-      <c r="F57" s="130" t="s">
+      <c r="F57" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="131" t="s">
+      <c r="G57" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="127"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="131"/>
-      <c r="M57" s="131"/>
-      <c r="N57" s="128"/>
-      <c r="O57" s="133"/>
-    </row>
-    <row r="58" spans="1:15" s="125" customFormat="1">
-      <c r="A58" s="126">
+      <c r="H57" s="126"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="126"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="127"/>
+      <c r="O57" s="132"/>
+    </row>
+    <row r="58" spans="1:15" s="124" customFormat="1">
+      <c r="A58" s="125">
         <v>56</v>
       </c>
-      <c r="B58" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="127" t="s">
+      <c r="B58" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="109">
         <v>42610</v>
       </c>
-      <c r="E58" s="129">
+      <c r="E58" s="128">
         <v>42612</v>
       </c>
-      <c r="F58" s="130" t="s">
+      <c r="F58" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="G58" s="131"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="127"/>
-      <c r="L58" s="131"/>
-      <c r="M58" s="131"/>
-      <c r="N58" s="128"/>
-      <c r="O58" s="133"/>
-    </row>
-    <row r="59" spans="1:15" s="125" customFormat="1" ht="27">
-      <c r="A59" s="126">
+      <c r="G58" s="130"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="130"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="127"/>
+      <c r="O58" s="132"/>
+    </row>
+    <row r="59" spans="1:15" s="124" customFormat="1" ht="27">
+      <c r="A59" s="125">
         <v>57</v>
       </c>
-      <c r="B59" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="127" t="s">
+      <c r="B59" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="109">
         <v>42610</v>
       </c>
-      <c r="E59" s="129">
+      <c r="E59" s="128">
         <v>42612</v>
       </c>
-      <c r="F59" s="130" t="s">
+      <c r="F59" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="131"/>
-      <c r="H59" s="127"/>
-      <c r="I59" s="132"/>
-      <c r="J59" s="132"/>
-      <c r="K59" s="127"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="131"/>
-      <c r="N59" s="128"/>
-      <c r="O59" s="133"/>
-    </row>
-    <row r="60" spans="1:15" s="125" customFormat="1">
-      <c r="A60" s="126">
+      <c r="G59" s="130"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="131"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="130"/>
+      <c r="N59" s="127"/>
+      <c r="O59" s="132"/>
+    </row>
+    <row r="60" spans="1:15" s="124" customFormat="1">
+      <c r="A60" s="125">
         <v>58</v>
       </c>
-      <c r="B60" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="127" t="s">
+      <c r="B60" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D60" s="109">
         <v>42610</v>
       </c>
-      <c r="E60" s="129">
+      <c r="E60" s="128">
         <v>42612</v>
       </c>
-      <c r="F60" s="130" t="s">
+      <c r="F60" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="G60" s="131"/>
-      <c r="H60" s="127"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="132"/>
-      <c r="K60" s="127"/>
-      <c r="L60" s="131"/>
-      <c r="M60" s="131"/>
-      <c r="N60" s="128"/>
-      <c r="O60" s="133"/>
-    </row>
-    <row r="61" spans="1:15" s="125" customFormat="1">
-      <c r="A61" s="126">
+      <c r="G60" s="130"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="131"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="130"/>
+      <c r="M60" s="130"/>
+      <c r="N60" s="127"/>
+      <c r="O60" s="132"/>
+    </row>
+    <row r="61" spans="1:15" s="124" customFormat="1">
+      <c r="A61" s="125">
         <v>59</v>
       </c>
-      <c r="B61" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="127" t="s">
+      <c r="B61" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="109">
         <v>42610</v>
       </c>
-      <c r="E61" s="129">
+      <c r="E61" s="128">
         <v>42612</v>
       </c>
-      <c r="F61" s="130" t="s">
+      <c r="F61" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="G61" s="131"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="132"/>
-      <c r="K61" s="127"/>
-      <c r="L61" s="131"/>
-      <c r="M61" s="131"/>
-      <c r="N61" s="128"/>
-      <c r="O61" s="133"/>
-    </row>
-    <row r="62" spans="1:15" s="125" customFormat="1">
-      <c r="A62" s="126">
+      <c r="G61" s="130"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="131"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="130"/>
+      <c r="N61" s="127"/>
+      <c r="O61" s="132"/>
+    </row>
+    <row r="62" spans="1:15" s="124" customFormat="1">
+      <c r="A62" s="125">
         <v>60</v>
       </c>
-      <c r="B62" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="127" t="s">
+      <c r="B62" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="109">
         <v>42610</v>
       </c>
-      <c r="E62" s="129">
+      <c r="E62" s="128">
         <v>42612</v>
       </c>
-      <c r="F62" s="130" t="s">
+      <c r="F62" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="G62" s="131"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="127"/>
-      <c r="L62" s="131"/>
-      <c r="M62" s="131"/>
-      <c r="N62" s="128"/>
-      <c r="O62" s="133"/>
-    </row>
-    <row r="63" spans="1:15" s="125" customFormat="1">
-      <c r="A63" s="126">
+      <c r="G62" s="130"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="131"/>
+      <c r="J62" s="131"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="130"/>
+      <c r="N62" s="127"/>
+      <c r="O62" s="132"/>
+    </row>
+    <row r="63" spans="1:15" s="124" customFormat="1">
+      <c r="A63" s="125">
         <v>61</v>
       </c>
-      <c r="B63" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="127" t="s">
+      <c r="B63" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="109">
         <v>42610</v>
       </c>
-      <c r="E63" s="129">
+      <c r="E63" s="128">
         <v>42612</v>
       </c>
-      <c r="F63" s="130" t="s">
+      <c r="F63" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="131" t="s">
+      <c r="G63" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H63" s="127"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="132"/>
-      <c r="K63" s="127"/>
-      <c r="L63" s="131"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="128"/>
-      <c r="O63" s="133"/>
-    </row>
-    <row r="64" spans="1:15" s="125" customFormat="1" ht="27">
-      <c r="A64" s="126">
+      <c r="H63" s="126"/>
+      <c r="I63" s="131"/>
+      <c r="J63" s="131"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="130"/>
+      <c r="N63" s="127"/>
+      <c r="O63" s="132"/>
+    </row>
+    <row r="64" spans="1:15" s="124" customFormat="1" ht="27">
+      <c r="A64" s="125">
         <v>62</v>
       </c>
-      <c r="B64" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="127" t="s">
+      <c r="B64" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="109">
         <v>42610</v>
       </c>
-      <c r="E64" s="129">
+      <c r="E64" s="128">
         <v>42612</v>
       </c>
-      <c r="F64" s="130" t="s">
+      <c r="F64" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="G64" s="131" t="s">
+      <c r="G64" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="127"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="127"/>
-      <c r="L64" s="131"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="128"/>
-      <c r="O64" s="133"/>
-    </row>
-    <row r="65" spans="1:15" s="125" customFormat="1">
-      <c r="A65" s="126">
+      <c r="H64" s="126"/>
+      <c r="I64" s="131"/>
+      <c r="J64" s="131"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="127"/>
+      <c r="O64" s="132"/>
+    </row>
+    <row r="65" spans="1:15" s="124" customFormat="1">
+      <c r="A65" s="125">
         <v>63</v>
       </c>
-      <c r="B65" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="127" t="s">
+      <c r="B65" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="109">
         <v>42610</v>
       </c>
-      <c r="E65" s="129">
+      <c r="E65" s="128">
         <v>42612</v>
       </c>
-      <c r="F65" s="130" t="s">
+      <c r="F65" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="G65" s="131" t="s">
+      <c r="G65" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H65" s="127"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="127"/>
-      <c r="L65" s="131"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="128"/>
-      <c r="O65" s="133"/>
-    </row>
-    <row r="66" spans="1:15" s="125" customFormat="1">
-      <c r="A66" s="126">
+      <c r="H65" s="126"/>
+      <c r="I65" s="131"/>
+      <c r="J65" s="131"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="130"/>
+      <c r="M65" s="130"/>
+      <c r="N65" s="127"/>
+      <c r="O65" s="132"/>
+    </row>
+    <row r="66" spans="1:15" s="124" customFormat="1">
+      <c r="A66" s="125">
         <v>64</v>
       </c>
-      <c r="B66" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="127" t="s">
+      <c r="B66" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="109">
         <v>42610</v>
       </c>
-      <c r="E66" s="129">
+      <c r="E66" s="128">
         <v>42612</v>
       </c>
-      <c r="F66" s="130" t="s">
+      <c r="F66" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="131" t="s">
+      <c r="G66" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H66" s="127"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="127"/>
-      <c r="L66" s="131"/>
-      <c r="M66" s="131"/>
-      <c r="N66" s="128"/>
-      <c r="O66" s="133"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="131"/>
+      <c r="J66" s="131"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="130"/>
+      <c r="N66" s="127"/>
+      <c r="O66" s="132"/>
     </row>
     <row r="67" spans="1:15" customFormat="1" ht="27">
-      <c r="A67" s="126">
+      <c r="A67" s="125">
         <v>65</v>
       </c>
-      <c r="B67" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="127" t="s">
+      <c r="B67" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="109">
         <v>42610</v>
       </c>
-      <c r="E67" s="129">
+      <c r="E67" s="128">
         <v>42612</v>
       </c>
-      <c r="F67" s="130" t="s">
+      <c r="F67" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="G67" s="131" t="s">
+      <c r="G67" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H67" s="127"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="127"/>
-      <c r="L67" s="131"/>
-      <c r="M67" s="131"/>
-      <c r="N67" s="128"/>
-      <c r="O67" s="133"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="131"/>
+      <c r="J67" s="131"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="130"/>
+      <c r="M67" s="130"/>
+      <c r="N67" s="127"/>
+      <c r="O67" s="132"/>
     </row>
     <row r="68" spans="1:15" s="67" customFormat="1" ht="27">
-      <c r="A68" s="126">
+      <c r="A68" s="125">
         <v>66</v>
       </c>
-      <c r="B68" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="127" t="s">
+      <c r="B68" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="66">
@@ -6010,10 +6040,10 @@
       <c r="E68" s="25">
         <v>42612</v>
       </c>
-      <c r="F68" s="130" t="s">
+      <c r="F68" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="G68" s="131" t="s">
+      <c r="G68" s="130" t="s">
         <v>97</v>
       </c>
       <c r="H68" s="23"/>
@@ -6025,405 +6055,405 @@
       <c r="N68" s="24"/>
       <c r="O68" s="29"/>
     </row>
-    <row r="69" spans="1:15" s="125" customFormat="1">
-      <c r="A69" s="126">
+    <row r="69" spans="1:15" s="124" customFormat="1">
+      <c r="A69" s="125">
         <v>67</v>
       </c>
-      <c r="B69" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="127" t="s">
+      <c r="B69" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="109">
         <v>42610</v>
       </c>
-      <c r="E69" s="129">
+      <c r="E69" s="128">
         <v>42612</v>
       </c>
-      <c r="F69" s="130" t="s">
+      <c r="F69" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="G69" s="131" t="s">
+      <c r="G69" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H69" s="127"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="127"/>
-      <c r="L69" s="131"/>
-      <c r="M69" s="131"/>
-      <c r="N69" s="128"/>
-      <c r="O69" s="133"/>
-    </row>
-    <row r="70" spans="1:15" s="125" customFormat="1">
-      <c r="A70" s="126">
+      <c r="H69" s="126"/>
+      <c r="I69" s="131"/>
+      <c r="J69" s="131"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="130"/>
+      <c r="N69" s="127"/>
+      <c r="O69" s="132"/>
+    </row>
+    <row r="70" spans="1:15" s="124" customFormat="1">
+      <c r="A70" s="125">
         <v>68</v>
       </c>
-      <c r="B70" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="127" t="s">
+      <c r="B70" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="109">
         <v>42610</v>
       </c>
-      <c r="E70" s="129">
+      <c r="E70" s="128">
         <v>42612</v>
       </c>
-      <c r="F70" s="130" t="s">
+      <c r="F70" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="G70" s="131" t="s">
+      <c r="G70" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H70" s="127"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="127"/>
-      <c r="L70" s="131"/>
-      <c r="M70" s="131"/>
-      <c r="N70" s="128"/>
-      <c r="O70" s="133"/>
-    </row>
-    <row r="71" spans="1:15" s="125" customFormat="1">
-      <c r="A71" s="126">
+      <c r="H70" s="126"/>
+      <c r="I70" s="131"/>
+      <c r="J70" s="131"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="130"/>
+      <c r="M70" s="130"/>
+      <c r="N70" s="127"/>
+      <c r="O70" s="132"/>
+    </row>
+    <row r="71" spans="1:15" s="124" customFormat="1">
+      <c r="A71" s="125">
         <v>69</v>
       </c>
-      <c r="B71" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" s="127" t="s">
+      <c r="B71" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="109">
         <v>42610</v>
       </c>
-      <c r="E71" s="129">
+      <c r="E71" s="128">
         <v>42612</v>
       </c>
-      <c r="F71" s="130" t="s">
+      <c r="F71" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="G71" s="131" t="s">
+      <c r="G71" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H71" s="127"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="132"/>
-      <c r="K71" s="127"/>
-      <c r="L71" s="131"/>
-      <c r="M71" s="131"/>
-      <c r="N71" s="128"/>
-      <c r="O71" s="133"/>
-    </row>
-    <row r="72" spans="1:15" s="125" customFormat="1">
-      <c r="A72" s="126">
+      <c r="H71" s="126"/>
+      <c r="I71" s="131"/>
+      <c r="J71" s="131"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="130"/>
+      <c r="M71" s="130"/>
+      <c r="N71" s="127"/>
+      <c r="O71" s="132"/>
+    </row>
+    <row r="72" spans="1:15" s="124" customFormat="1">
+      <c r="A72" s="125">
         <v>70</v>
       </c>
-      <c r="B72" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="127" t="s">
+      <c r="B72" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="109">
         <v>42610</v>
       </c>
-      <c r="E72" s="129">
+      <c r="E72" s="128">
         <v>42612</v>
       </c>
-      <c r="F72" s="130" t="s">
+      <c r="F72" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="G72" s="131" t="s">
+      <c r="G72" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H72" s="127"/>
-      <c r="I72" s="132"/>
-      <c r="J72" s="132"/>
-      <c r="K72" s="127"/>
-      <c r="L72" s="131"/>
-      <c r="M72" s="131"/>
-      <c r="N72" s="128"/>
-      <c r="O72" s="133"/>
-    </row>
-    <row r="73" spans="1:15" s="125" customFormat="1" ht="27">
-      <c r="A73" s="126">
+      <c r="H72" s="126"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="131"/>
+      <c r="K72" s="126"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="130"/>
+      <c r="N72" s="127"/>
+      <c r="O72" s="132"/>
+    </row>
+    <row r="73" spans="1:15" s="124" customFormat="1" ht="27">
+      <c r="A73" s="125">
         <v>71</v>
       </c>
-      <c r="B73" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="127" t="s">
+      <c r="B73" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="109">
         <v>42610</v>
       </c>
-      <c r="E73" s="129">
+      <c r="E73" s="128">
         <v>42612</v>
       </c>
-      <c r="F73" s="130" t="s">
+      <c r="F73" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="G73" s="131" t="s">
+      <c r="G73" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H73" s="127"/>
-      <c r="I73" s="132"/>
-      <c r="J73" s="132"/>
-      <c r="K73" s="127"/>
-      <c r="L73" s="131"/>
-      <c r="M73" s="131"/>
-      <c r="N73" s="128"/>
-      <c r="O73" s="133"/>
-    </row>
-    <row r="74" spans="1:15" s="125" customFormat="1">
-      <c r="A74" s="126">
+      <c r="H73" s="126"/>
+      <c r="I73" s="131"/>
+      <c r="J73" s="131"/>
+      <c r="K73" s="126"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="127"/>
+      <c r="O73" s="132"/>
+    </row>
+    <row r="74" spans="1:15" s="124" customFormat="1">
+      <c r="A74" s="125">
         <v>72</v>
       </c>
-      <c r="B74" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="127" t="s">
+      <c r="B74" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="109">
         <v>42610</v>
       </c>
-      <c r="E74" s="129">
+      <c r="E74" s="128">
         <v>42612</v>
       </c>
-      <c r="F74" s="130" t="s">
+      <c r="F74" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="G74" s="131" t="s">
+      <c r="G74" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H74" s="127"/>
-      <c r="I74" s="132"/>
-      <c r="J74" s="132"/>
-      <c r="K74" s="127"/>
-      <c r="L74" s="131"/>
-      <c r="M74" s="131"/>
-      <c r="N74" s="128"/>
-      <c r="O74" s="133"/>
-    </row>
-    <row r="75" spans="1:15" s="125" customFormat="1">
-      <c r="A75" s="126">
+      <c r="H74" s="126"/>
+      <c r="I74" s="131"/>
+      <c r="J74" s="131"/>
+      <c r="K74" s="126"/>
+      <c r="L74" s="130"/>
+      <c r="M74" s="130"/>
+      <c r="N74" s="127"/>
+      <c r="O74" s="132"/>
+    </row>
+    <row r="75" spans="1:15" s="124" customFormat="1">
+      <c r="A75" s="125">
         <v>73</v>
       </c>
-      <c r="B75" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="127" t="s">
+      <c r="B75" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="109">
         <v>42610</v>
       </c>
-      <c r="E75" s="129">
+      <c r="E75" s="128">
         <v>42612</v>
       </c>
-      <c r="F75" s="130" t="s">
+      <c r="F75" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="131" t="s">
+      <c r="G75" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H75" s="127"/>
-      <c r="I75" s="132"/>
-      <c r="J75" s="132"/>
-      <c r="K75" s="127"/>
-      <c r="L75" s="131"/>
-      <c r="M75" s="131"/>
-      <c r="N75" s="128"/>
-      <c r="O75" s="133"/>
-    </row>
-    <row r="76" spans="1:15" s="125" customFormat="1">
-      <c r="A76" s="126">
+      <c r="H75" s="126"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="131"/>
+      <c r="K75" s="126"/>
+      <c r="L75" s="130"/>
+      <c r="M75" s="130"/>
+      <c r="N75" s="127"/>
+      <c r="O75" s="132"/>
+    </row>
+    <row r="76" spans="1:15" s="124" customFormat="1">
+      <c r="A76" s="125">
         <v>75</v>
       </c>
-      <c r="B76" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="127" t="s">
+      <c r="B76" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="109">
         <v>42610</v>
       </c>
-      <c r="E76" s="129">
+      <c r="E76" s="128">
         <v>42612</v>
       </c>
-      <c r="F76" s="130" t="s">
+      <c r="F76" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="G76" s="131"/>
-      <c r="H76" s="127"/>
-      <c r="I76" s="132"/>
-      <c r="J76" s="132"/>
-      <c r="K76" s="127"/>
-      <c r="L76" s="131"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="128"/>
-      <c r="O76" s="133"/>
-    </row>
-    <row r="77" spans="1:15" s="125" customFormat="1">
-      <c r="A77" s="126">
+      <c r="G76" s="130"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="131"/>
+      <c r="J76" s="131"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="130"/>
+      <c r="M76" s="130"/>
+      <c r="N76" s="127"/>
+      <c r="O76" s="132"/>
+    </row>
+    <row r="77" spans="1:15" s="124" customFormat="1">
+      <c r="A77" s="125">
         <v>75</v>
       </c>
-      <c r="B77" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="127" t="s">
+      <c r="B77" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="109">
         <v>42610</v>
       </c>
-      <c r="E77" s="129">
+      <c r="E77" s="128">
         <v>42612</v>
       </c>
-      <c r="F77" s="130" t="s">
+      <c r="F77" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="G77" s="131"/>
-      <c r="H77" s="127"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="132"/>
-      <c r="K77" s="127"/>
-      <c r="L77" s="131"/>
-      <c r="M77" s="131"/>
-      <c r="N77" s="128"/>
-      <c r="O77" s="133"/>
-    </row>
-    <row r="78" spans="1:15" s="125" customFormat="1" ht="27">
-      <c r="A78" s="126">
+      <c r="G77" s="130"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="131"/>
+      <c r="J77" s="131"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="130"/>
+      <c r="M77" s="130"/>
+      <c r="N77" s="127"/>
+      <c r="O77" s="132"/>
+    </row>
+    <row r="78" spans="1:15" s="124" customFormat="1" ht="27">
+      <c r="A78" s="125">
         <v>74</v>
       </c>
-      <c r="B78" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="127" t="s">
+      <c r="B78" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="109">
         <v>42610</v>
       </c>
-      <c r="E78" s="129">
+      <c r="E78" s="128">
         <v>42612</v>
       </c>
-      <c r="F78" s="130" t="s">
+      <c r="F78" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="G78" s="131"/>
-      <c r="H78" s="127"/>
-      <c r="I78" s="132"/>
-      <c r="J78" s="132"/>
-      <c r="K78" s="127"/>
-      <c r="L78" s="131"/>
-      <c r="M78" s="131"/>
-      <c r="N78" s="128"/>
-      <c r="O78" s="133"/>
-    </row>
-    <row r="79" spans="1:15" s="125" customFormat="1" ht="40.5">
-      <c r="A79" s="126">
+      <c r="G78" s="130"/>
+      <c r="H78" s="126"/>
+      <c r="I78" s="131"/>
+      <c r="J78" s="131"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="130"/>
+      <c r="M78" s="130"/>
+      <c r="N78" s="127"/>
+      <c r="O78" s="132"/>
+    </row>
+    <row r="79" spans="1:15" s="124" customFormat="1" ht="40.5">
+      <c r="A79" s="125">
         <v>75</v>
       </c>
-      <c r="B79" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="127" t="s">
+      <c r="B79" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="109">
         <v>42610</v>
       </c>
-      <c r="E79" s="129">
+      <c r="E79" s="128">
         <v>42612</v>
       </c>
-      <c r="F79" s="130" t="s">
+      <c r="F79" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="G79" s="131"/>
-      <c r="H79" s="127"/>
-      <c r="I79" s="132"/>
-      <c r="J79" s="132"/>
-      <c r="K79" s="127"/>
-      <c r="L79" s="131"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="128"/>
-      <c r="O79" s="133"/>
-    </row>
-    <row r="80" spans="1:15" s="125" customFormat="1" ht="27">
-      <c r="A80" s="126">
+      <c r="G79" s="130"/>
+      <c r="H79" s="126"/>
+      <c r="I79" s="131"/>
+      <c r="J79" s="131"/>
+      <c r="K79" s="126"/>
+      <c r="L79" s="130"/>
+      <c r="M79" s="130"/>
+      <c r="N79" s="127"/>
+      <c r="O79" s="132"/>
+    </row>
+    <row r="80" spans="1:15" s="124" customFormat="1" ht="27">
+      <c r="A80" s="125">
         <v>76</v>
       </c>
-      <c r="B80" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" s="127" t="s">
+      <c r="B80" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="109">
         <v>42610</v>
       </c>
-      <c r="E80" s="129">
+      <c r="E80" s="128">
         <v>42612</v>
       </c>
-      <c r="F80" s="130" t="s">
+      <c r="F80" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="G80" s="131"/>
-      <c r="H80" s="127"/>
-      <c r="I80" s="132"/>
-      <c r="J80" s="132"/>
-      <c r="K80" s="127"/>
-      <c r="L80" s="131"/>
-      <c r="M80" s="131"/>
-      <c r="N80" s="128"/>
-      <c r="O80" s="133"/>
-    </row>
-    <row r="81" spans="1:15" s="125" customFormat="1">
-      <c r="A81" s="126">
+      <c r="G80" s="130"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="131"/>
+      <c r="J80" s="131"/>
+      <c r="K80" s="126"/>
+      <c r="L80" s="130"/>
+      <c r="M80" s="130"/>
+      <c r="N80" s="127"/>
+      <c r="O80" s="132"/>
+    </row>
+    <row r="81" spans="1:15" s="124" customFormat="1">
+      <c r="A81" s="125">
         <v>76</v>
       </c>
-      <c r="B81" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="127" t="s">
+      <c r="B81" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="109">
         <v>42610</v>
       </c>
-      <c r="E81" s="129">
+      <c r="E81" s="128">
         <v>42612</v>
       </c>
-      <c r="F81" s="130" t="s">
+      <c r="F81" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="G81" s="131"/>
-      <c r="H81" s="127"/>
-      <c r="I81" s="132"/>
-      <c r="J81" s="132"/>
-      <c r="K81" s="127"/>
-      <c r="L81" s="131"/>
-      <c r="M81" s="131"/>
-      <c r="N81" s="128"/>
-      <c r="O81" s="133"/>
+      <c r="G81" s="130"/>
+      <c r="H81" s="126"/>
+      <c r="I81" s="131"/>
+      <c r="J81" s="131"/>
+      <c r="K81" s="126"/>
+      <c r="L81" s="130"/>
+      <c r="M81" s="130"/>
+      <c r="N81" s="127"/>
+      <c r="O81" s="132"/>
     </row>
     <row r="82" spans="1:15" s="67" customFormat="1" ht="54">
-      <c r="A82" s="126">
+      <c r="A82" s="125">
         <v>77</v>
       </c>
-      <c r="B82" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="127" t="s">
+      <c r="B82" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="126" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="66">
@@ -6432,10 +6462,10 @@
       <c r="E82" s="25">
         <v>42612</v>
       </c>
-      <c r="F82" s="130" t="s">
+      <c r="F82" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="G82" s="131" t="s">
+      <c r="G82" s="130" t="s">
         <v>97</v>
       </c>
       <c r="H82" s="23"/>
@@ -6447,8 +6477,8 @@
       <c r="N82" s="24"/>
       <c r="O82" s="29"/>
     </row>
-    <row r="83" spans="1:15" s="118" customFormat="1" ht="27">
-      <c r="A83" s="126">
+    <row r="83" spans="1:15" s="118" customFormat="1" ht="27" hidden="1">
+      <c r="A83" s="125">
         <v>78</v>
       </c>
       <c r="B83" s="119" t="s">
@@ -6463,18 +6493,26 @@
       <c r="E83" s="121">
         <v>42612</v>
       </c>
-      <c r="F83" s="130" t="s">
+      <c r="F83" s="129" t="s">
         <v>125</v>
       </c>
       <c r="G83" s="122"/>
       <c r="H83" s="119"/>
       <c r="I83" s="123"/>
       <c r="J83" s="123"/>
-      <c r="K83" s="119"/>
+      <c r="K83" s="126" t="s">
+        <v>152</v>
+      </c>
       <c r="L83" s="122"/>
-      <c r="M83" s="122"/>
-      <c r="N83" s="120"/>
-      <c r="O83" s="124"/>
+      <c r="M83" s="130" t="s">
+        <v>156</v>
+      </c>
+      <c r="N83" s="120">
+        <v>42616</v>
+      </c>
+      <c r="O83" s="132" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="84" spans="1:15" s="4" customFormat="1">
       <c r="A84" s="44"/>
@@ -6508,7 +6546,11 @@
       <c r="F90" s="77"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O37"/>
+  <autoFilter ref="A2:O83">
+    <filterColumn colId="10">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K83">
@@ -8192,7 +8234,7 @@
       <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" ht="27">
-      <c r="A14" s="126">
+      <c r="A14" s="125">
         <v>8</v>
       </c>
       <c r="B14" s="102" t="s">
@@ -8207,7 +8249,7 @@
       <c r="E14" s="104">
         <v>42612</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="F14" s="129" t="s">
         <v>124</v>
       </c>
       <c r="G14" s="105"/>
@@ -8221,33 +8263,33 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="126">
+      <c r="A15" s="125">
         <v>8</v>
       </c>
-      <c r="B15" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="127" t="s">
+      <c r="B15" s="126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="128">
+      <c r="D15" s="127">
         <v>42610</v>
       </c>
-      <c r="E15" s="129">
+      <c r="E15" s="128">
         <v>42612</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="131"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="133"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="132"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="44"/>

--- a/测试单-电子书_160901.xlsx
+++ b/测试单-电子书_160901.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="155">
   <si>
     <t>编号</t>
   </si>
@@ -2848,23 +2848,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>无法复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainListAdapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义一个可以滚动的TextView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏治平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你们的机器比较特殊，没有插入外部SD卡，居然也能得到路径。</t>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3251,7 +3242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3622,6 +3613,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3977,14 +3971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O83" sqref="O83"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3997,11 +3990,9 @@
     <col min="7" max="7" width="11.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9" style="3"/>
-    <col min="12" max="12" width="17.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="10" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="23.75" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
@@ -4072,10 +4063,10 @@
       <c r="E3" s="25">
         <v>42555</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="131" t="s">
         <v>97</v>
       </c>
       <c r="H3" s="23"/>
@@ -4088,7 +4079,7 @@
       <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" s="92" customFormat="1" ht="81">
-      <c r="A4" s="125">
+      <c r="A4" s="126">
         <v>2</v>
       </c>
       <c r="B4" s="85" t="s">
@@ -4121,7 +4112,7 @@
       <c r="O4" s="91"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="54">
-      <c r="A5" s="125">
+      <c r="A5" s="126">
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -4136,13 +4127,13 @@
       <c r="E5" s="25">
         <v>42555</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="127" t="s">
         <v>66</v>
       </c>
       <c r="I5" s="28"/>
@@ -4154,7 +4145,7 @@
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" ht="27">
-      <c r="A6" s="125">
+      <c r="A6" s="126">
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -4169,7 +4160,7 @@
       <c r="E6" s="25">
         <v>42555</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="130" t="s">
         <v>87</v>
       </c>
       <c r="G6" s="27"/>
@@ -4183,7 +4174,7 @@
       <c r="O6" s="29"/>
     </row>
     <row r="7" spans="1:15" s="9" customFormat="1" ht="27">
-      <c r="A7" s="125">
+      <c r="A7" s="126">
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -4198,7 +4189,7 @@
       <c r="E7" s="25">
         <v>42555</v>
       </c>
-      <c r="F7" s="129" t="s">
+      <c r="F7" s="130" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="27"/>
@@ -4212,7 +4203,7 @@
       <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:15" ht="27">
-      <c r="A8" s="125">
+      <c r="A8" s="126">
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -4227,7 +4218,7 @@
       <c r="E8" s="25">
         <v>42555</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="130" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="27" t="s">
@@ -4243,7 +4234,7 @@
       <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:15" s="92" customFormat="1" ht="40.5">
-      <c r="A9" s="125">
+      <c r="A9" s="126">
         <v>7</v>
       </c>
       <c r="B9" s="85" t="s">
@@ -4276,7 +4267,7 @@
       <c r="O9" s="91"/>
     </row>
     <row r="10" spans="1:15" s="9" customFormat="1" ht="40.5">
-      <c r="A10" s="125">
+      <c r="A10" s="126">
         <v>8</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -4291,10 +4282,10 @@
       <c r="E10" s="25">
         <v>42555</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="131" t="s">
         <v>97</v>
       </c>
       <c r="H10" s="23"/>
@@ -4306,43 +4297,43 @@
       <c r="N10" s="24"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:15" s="140" customFormat="1" ht="40.5">
-      <c r="A11" s="125">
+    <row r="11" spans="1:15" s="141" customFormat="1" ht="40.5">
+      <c r="A11" s="126">
         <v>9</v>
       </c>
-      <c r="B11" s="133" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="133" t="s">
+      <c r="B11" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="135">
         <v>42552</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="136">
         <v>42555</v>
       </c>
-      <c r="F11" s="136" t="s">
+      <c r="F11" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="137"/>
-      <c r="H11" s="133" t="s">
+      <c r="G11" s="138"/>
+      <c r="H11" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="138"/>
-      <c r="J11" s="134">
+      <c r="I11" s="139"/>
+      <c r="J11" s="135">
         <v>42610</v>
       </c>
-      <c r="K11" s="133"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137" t="s">
+      <c r="K11" s="134"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="N11" s="134"/>
-      <c r="O11" s="139"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="140"/>
     </row>
     <row r="12" spans="1:15" s="92" customFormat="1" ht="40.5">
-      <c r="A12" s="125">
+      <c r="A12" s="126">
         <v>10</v>
       </c>
       <c r="B12" s="85" t="s">
@@ -4375,7 +4366,7 @@
       <c r="O12" s="91"/>
     </row>
     <row r="13" spans="1:15" s="92" customFormat="1" ht="27">
-      <c r="A13" s="125">
+      <c r="A13" s="126">
         <v>11</v>
       </c>
       <c r="B13" s="85" t="s">
@@ -4408,7 +4399,7 @@
       <c r="O13" s="91"/>
     </row>
     <row r="14" spans="1:15" ht="67.5">
-      <c r="A14" s="125">
+      <c r="A14" s="126">
         <v>12</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -4423,7 +4414,7 @@
       <c r="E14" s="25">
         <v>42555</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="130" t="s">
         <v>73</v>
       </c>
       <c r="G14" s="27"/>
@@ -4437,7 +4428,7 @@
       <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15" ht="67.5">
-      <c r="A15" s="125">
+      <c r="A15" s="126">
         <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -4452,7 +4443,7 @@
       <c r="E15" s="25">
         <v>42555</v>
       </c>
-      <c r="F15" s="129" t="s">
+      <c r="F15" s="130" t="s">
         <v>72</v>
       </c>
       <c r="G15" s="27"/>
@@ -4466,7 +4457,7 @@
       <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" ht="27">
-      <c r="A16" s="125">
+      <c r="A16" s="126">
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -4481,7 +4472,7 @@
       <c r="E16" s="25">
         <v>42555</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="130" t="s">
         <v>74</v>
       </c>
       <c r="G16" s="27"/>
@@ -4495,7 +4486,7 @@
       <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" ht="40.5">
-      <c r="A17" s="125">
+      <c r="A17" s="126">
         <v>15</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -4510,7 +4501,7 @@
       <c r="E17" s="25">
         <v>42507</v>
       </c>
-      <c r="F17" s="129" t="s">
+      <c r="F17" s="130" t="s">
         <v>75</v>
       </c>
       <c r="G17" s="27"/>
@@ -4524,7 +4515,7 @@
       <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15" ht="27">
-      <c r="A18" s="125">
+      <c r="A18" s="126">
         <v>16</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -4539,7 +4530,7 @@
       <c r="E18" s="25">
         <v>42555</v>
       </c>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="130" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="27"/>
@@ -4553,7 +4544,7 @@
       <c r="O18" s="29"/>
     </row>
     <row r="19" spans="1:15" s="67" customFormat="1" ht="94.5">
-      <c r="A19" s="125">
+      <c r="A19" s="126">
         <v>17</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -4568,7 +4559,7 @@
       <c r="E19" s="25">
         <v>42555</v>
       </c>
-      <c r="F19" s="129" t="s">
+      <c r="F19" s="130" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="27"/>
@@ -4582,7 +4573,7 @@
       <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" s="67" customFormat="1" ht="54">
-      <c r="A20" s="125">
+      <c r="A20" s="126">
         <v>18</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -4597,7 +4588,7 @@
       <c r="E20" s="25">
         <v>42555</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="130" t="s">
         <v>78</v>
       </c>
       <c r="G20" s="27"/>
@@ -4611,7 +4602,7 @@
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:15" s="67" customFormat="1" ht="162">
-      <c r="A21" s="125">
+      <c r="A21" s="126">
         <v>19</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -4626,7 +4617,7 @@
       <c r="E21" s="25">
         <v>42555</v>
       </c>
-      <c r="F21" s="129" t="s">
+      <c r="F21" s="130" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="27"/>
@@ -4640,7 +4631,7 @@
       <c r="O21" s="29"/>
     </row>
     <row r="22" spans="1:15" ht="81">
-      <c r="A22" s="125">
+      <c r="A22" s="126">
         <v>20</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -4655,7 +4646,7 @@
       <c r="E22" s="25">
         <v>42555</v>
       </c>
-      <c r="F22" s="129" t="s">
+      <c r="F22" s="130" t="s">
         <v>81</v>
       </c>
       <c r="G22" s="27"/>
@@ -4669,7 +4660,7 @@
       <c r="O22" s="29"/>
     </row>
     <row r="23" spans="1:15" ht="108">
-      <c r="A23" s="125">
+      <c r="A23" s="126">
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -4684,7 +4675,7 @@
       <c r="E23" s="25">
         <v>42555</v>
       </c>
-      <c r="F23" s="129" t="s">
+      <c r="F23" s="130" t="s">
         <v>82</v>
       </c>
       <c r="G23" s="27"/>
@@ -4698,7 +4689,7 @@
       <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="40.5">
-      <c r="A24" s="125">
+      <c r="A24" s="126">
         <v>22</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -4713,7 +4704,7 @@
       <c r="E24" s="25">
         <v>42555</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="130" t="s">
         <v>83</v>
       </c>
       <c r="G24" s="27"/>
@@ -4727,7 +4718,7 @@
       <c r="O24" s="29"/>
     </row>
     <row r="25" spans="1:15" ht="40.5">
-      <c r="A25" s="125">
+      <c r="A25" s="126">
         <v>23</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -4742,7 +4733,7 @@
       <c r="E25" s="25">
         <v>42555</v>
       </c>
-      <c r="F25" s="129" t="s">
+      <c r="F25" s="130" t="s">
         <v>84</v>
       </c>
       <c r="G25" s="27"/>
@@ -4756,7 +4747,7 @@
       <c r="O25" s="29"/>
     </row>
     <row r="26" spans="1:15" s="92" customFormat="1" ht="54">
-      <c r="A26" s="125">
+      <c r="A26" s="126">
         <v>24</v>
       </c>
       <c r="B26" s="85" t="s">
@@ -4789,7 +4780,7 @@
       <c r="O26" s="91"/>
     </row>
     <row r="27" spans="1:15" ht="81">
-      <c r="A27" s="125">
+      <c r="A27" s="126">
         <v>25</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -4804,7 +4795,7 @@
       <c r="E27" s="25">
         <v>42555</v>
       </c>
-      <c r="F27" s="129" t="s">
+      <c r="F27" s="130" t="s">
         <v>88</v>
       </c>
       <c r="G27" s="27"/>
@@ -4818,7 +4809,7 @@
       <c r="O27" s="29"/>
     </row>
     <row r="28" spans="1:15" ht="189">
-      <c r="A28" s="125">
+      <c r="A28" s="126">
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -4833,7 +4824,7 @@
       <c r="E28" s="25">
         <v>42555</v>
       </c>
-      <c r="F28" s="129" t="s">
+      <c r="F28" s="130" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="27"/>
@@ -4847,7 +4838,7 @@
       <c r="O28" s="29"/>
     </row>
     <row r="29" spans="1:15" s="67" customFormat="1" ht="108">
-      <c r="A29" s="125">
+      <c r="A29" s="126">
         <v>27</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -4876,7 +4867,7 @@
       <c r="O29" s="29"/>
     </row>
     <row r="30" spans="1:15" ht="54">
-      <c r="A30" s="125">
+      <c r="A30" s="126">
         <v>28</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -4891,10 +4882,10 @@
       <c r="E30" s="25">
         <v>42555</v>
       </c>
-      <c r="F30" s="129" t="s">
+      <c r="F30" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="130" t="s">
+      <c r="G30" s="131" t="s">
         <v>85</v>
       </c>
       <c r="H30" s="23"/>
@@ -4907,7 +4898,7 @@
       <c r="O30" s="29"/>
     </row>
     <row r="31" spans="1:15" ht="54">
-      <c r="A31" s="125">
+      <c r="A31" s="126">
         <v>29</v>
       </c>
       <c r="B31" s="23" t="s">
@@ -4922,7 +4913,7 @@
       <c r="E31" s="25">
         <v>42507</v>
       </c>
-      <c r="F31" s="129" t="s">
+      <c r="F31" s="130" t="s">
         <v>118</v>
       </c>
       <c r="G31" s="27"/>
@@ -4936,7 +4927,7 @@
       <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:15" ht="54">
-      <c r="A32" s="125">
+      <c r="A32" s="126">
         <v>30</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -4951,7 +4942,7 @@
       <c r="E32" s="25">
         <v>42507</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="130" t="s">
         <v>119</v>
       </c>
       <c r="G32" s="27"/>
@@ -4965,7 +4956,7 @@
       <c r="O32" s="29"/>
     </row>
     <row r="33" spans="1:15" ht="54">
-      <c r="A33" s="125">
+      <c r="A33" s="126">
         <v>31</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -4980,7 +4971,7 @@
       <c r="E33" s="25">
         <v>42555</v>
       </c>
-      <c r="F33" s="129" t="s">
+      <c r="F33" s="130" t="s">
         <v>90</v>
       </c>
       <c r="G33" s="27"/>
@@ -4994,7 +4985,7 @@
       <c r="O33" s="29"/>
     </row>
     <row r="34" spans="1:15" ht="94.5">
-      <c r="A34" s="125">
+      <c r="A34" s="126">
         <v>32</v>
       </c>
       <c r="B34" s="23" t="s">
@@ -5009,7 +5000,7 @@
       <c r="E34" s="25">
         <v>42555</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="130" t="s">
         <v>91</v>
       </c>
       <c r="G34" s="27"/>
@@ -5023,7 +5014,7 @@
       <c r="O34" s="29"/>
     </row>
     <row r="35" spans="1:15" s="82" customFormat="1" ht="67.5">
-      <c r="A35" s="125">
+      <c r="A35" s="126">
         <v>33</v>
       </c>
       <c r="B35" s="23" t="s">
@@ -5038,7 +5029,7 @@
       <c r="E35" s="80">
         <v>42507</v>
       </c>
-      <c r="F35" s="129" t="s">
+      <c r="F35" s="130" t="s">
         <v>120</v>
       </c>
       <c r="G35" s="27"/>
@@ -5052,7 +5043,7 @@
       <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="125">
+      <c r="A36" s="126">
         <v>34</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -5067,7 +5058,7 @@
       <c r="E36" s="25">
         <v>42555</v>
       </c>
-      <c r="F36" s="129" t="s">
+      <c r="F36" s="130" t="s">
         <v>92</v>
       </c>
       <c r="G36" s="27" t="s">
@@ -5083,7 +5074,7 @@
       <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="27">
-      <c r="A37" s="125">
+      <c r="A37" s="126">
         <v>35</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -5098,7 +5089,7 @@
       <c r="E37" s="25">
         <v>42555</v>
       </c>
-      <c r="F37" s="129" t="s">
+      <c r="F37" s="130" t="s">
         <v>93</v>
       </c>
       <c r="G37" s="27"/>
@@ -5112,7 +5103,7 @@
       <c r="O37" s="29"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="125">
+      <c r="A38" s="126">
         <v>36</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -5143,7 +5134,7 @@
       <c r="O38" s="29"/>
     </row>
     <row r="39" spans="1:15" s="92" customFormat="1">
-      <c r="A39" s="125">
+      <c r="A39" s="126">
         <v>37</v>
       </c>
       <c r="B39" s="85" t="s">
@@ -5176,7 +5167,7 @@
       <c r="O39" s="91"/>
     </row>
     <row r="40" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A40" s="125">
+      <c r="A40" s="126">
         <v>38</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -5191,10 +5182,10 @@
       <c r="E40" s="25">
         <v>42555</v>
       </c>
-      <c r="F40" s="129" t="s">
+      <c r="F40" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="130"/>
+      <c r="G40" s="131"/>
       <c r="H40" s="23"/>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
@@ -5205,7 +5196,7 @@
       <c r="O40" s="29"/>
     </row>
     <row r="41" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A41" s="125">
+      <c r="A41" s="126">
         <v>39</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -5220,21 +5211,23 @@
       <c r="E41" s="25">
         <v>42555</v>
       </c>
-      <c r="F41" s="129" t="s">
+      <c r="F41" s="130" t="s">
         <v>109</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="23"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
-      <c r="K41" s="23"/>
+      <c r="K41" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
       <c r="N41" s="24"/>
       <c r="O41" s="29"/>
     </row>
     <row r="42" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A42" s="125">
+      <c r="A42" s="126">
         <v>40</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -5249,10 +5242,10 @@
       <c r="E42" s="25">
         <v>42555</v>
       </c>
-      <c r="F42" s="129" t="s">
+      <c r="F42" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="130" t="s">
+      <c r="G42" s="131" t="s">
         <v>97</v>
       </c>
       <c r="H42" s="23"/>
@@ -5265,7 +5258,7 @@
       <c r="O42" s="29"/>
     </row>
     <row r="43" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A43" s="125">
+      <c r="A43" s="126">
         <v>41</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -5280,23 +5273,25 @@
       <c r="E43" s="25">
         <v>42555</v>
       </c>
-      <c r="F43" s="129" t="s">
+      <c r="F43" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="G43" s="130" t="s">
+      <c r="G43" s="131" t="s">
         <v>97</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
-      <c r="K43" s="23"/>
+      <c r="K43" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L43" s="27"/>
       <c r="M43" s="27"/>
       <c r="N43" s="24"/>
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A44" s="125">
+      <c r="A44" s="126">
         <v>42</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -5311,7 +5306,7 @@
       <c r="E44" s="25">
         <v>42555</v>
       </c>
-      <c r="F44" s="129" t="s">
+      <c r="F44" s="130" t="s">
         <v>100</v>
       </c>
       <c r="G44" s="27"/>
@@ -5325,7 +5320,7 @@
       <c r="O44" s="29"/>
     </row>
     <row r="45" spans="1:15" s="67" customFormat="1" ht="54">
-      <c r="A45" s="125">
+      <c r="A45" s="126">
         <v>43</v>
       </c>
       <c r="B45" s="23" t="s">
@@ -5340,20 +5335,22 @@
       <c r="E45" s="25">
         <v>42555</v>
       </c>
-      <c r="F45" s="129" t="s">
+      <c r="F45" s="130" t="s">
         <v>122</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="23"/>
       <c r="I45" s="28"/>
-      <c r="K45" s="23"/>
+      <c r="K45" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L45" s="27"/>
       <c r="M45" s="27"/>
       <c r="N45" s="24"/>
       <c r="O45" s="29"/>
     </row>
     <row r="46" spans="1:15" s="67" customFormat="1" ht="81">
-      <c r="A46" s="125">
+      <c r="A46" s="126">
         <v>44</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -5368,21 +5365,23 @@
       <c r="E46" s="25">
         <v>42555</v>
       </c>
-      <c r="F46" s="129" t="s">
+      <c r="F46" s="130" t="s">
         <v>101</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="23"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
-      <c r="K46" s="23"/>
+      <c r="K46" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
       <c r="N46" s="24"/>
       <c r="O46" s="29"/>
     </row>
     <row r="47" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A47" s="125">
+      <c r="A47" s="126">
         <v>45</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -5397,21 +5396,23 @@
       <c r="E47" s="25">
         <v>42555</v>
       </c>
-      <c r="F47" s="129" t="s">
+      <c r="F47" s="130" t="s">
         <v>102</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="23"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
-      <c r="K47" s="23"/>
+      <c r="K47" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
       <c r="N47" s="24"/>
       <c r="O47" s="29"/>
     </row>
     <row r="48" spans="1:15" s="67" customFormat="1" ht="67.5">
-      <c r="A48" s="125">
+      <c r="A48" s="126">
         <v>46</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -5426,10 +5427,10 @@
       <c r="E48" s="25">
         <v>42558</v>
       </c>
-      <c r="F48" s="129" t="s">
+      <c r="F48" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="130" t="s">
+      <c r="G48" s="131" t="s">
         <v>97</v>
       </c>
       <c r="H48" s="23"/>
@@ -5442,7 +5443,7 @@
       <c r="O48" s="29"/>
     </row>
     <row r="49" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A49" s="125">
+      <c r="A49" s="126">
         <v>47</v>
       </c>
       <c r="B49" s="23" t="s">
@@ -5457,7 +5458,7 @@
       <c r="E49" s="25">
         <v>42558</v>
       </c>
-      <c r="F49" s="129" t="s">
+      <c r="F49" s="130" t="s">
         <v>105</v>
       </c>
       <c r="G49" s="27"/>
@@ -5471,7 +5472,7 @@
       <c r="O49" s="29"/>
     </row>
     <row r="50" spans="1:15" s="67" customFormat="1" ht="40.5">
-      <c r="A50" s="125">
+      <c r="A50" s="126">
         <v>48</v>
       </c>
       <c r="B50" s="23" t="s">
@@ -5486,10 +5487,10 @@
       <c r="E50" s="25">
         <v>42558</v>
       </c>
-      <c r="F50" s="129" t="s">
+      <c r="F50" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="130" t="s">
+      <c r="G50" s="131" t="s">
         <v>97</v>
       </c>
       <c r="H50" s="23"/>
@@ -5502,7 +5503,7 @@
       <c r="O50" s="29"/>
     </row>
     <row r="51" spans="1:15" s="92" customFormat="1" ht="27">
-      <c r="A51" s="125">
+      <c r="A51" s="126">
         <v>49</v>
       </c>
       <c r="B51" s="85" t="s">
@@ -5534,504 +5535,500 @@
       <c r="N51" s="86"/>
       <c r="O51" s="91"/>
     </row>
-    <row r="52" spans="1:15" s="124" customFormat="1" ht="27" hidden="1">
-      <c r="A52" s="125">
+    <row r="52" spans="1:15" s="125" customFormat="1">
+      <c r="A52" s="126">
         <v>50</v>
       </c>
-      <c r="B52" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="126" t="s">
+      <c r="B52" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="109">
         <v>42610</v>
       </c>
-      <c r="E52" s="128">
+      <c r="E52" s="129">
         <v>42612</v>
       </c>
-      <c r="F52" s="129" t="s">
+      <c r="F52" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="G52" s="130"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="131"/>
-      <c r="K52" s="126" t="s">
-        <v>152</v>
-      </c>
-      <c r="L52" s="130" t="s">
-        <v>153</v>
-      </c>
-      <c r="M52" s="130" t="s">
+      <c r="G52" s="131"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="N52" s="127">
-        <v>42616</v>
-      </c>
-      <c r="O52" s="132" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="124" customFormat="1">
-      <c r="A53" s="125">
+      <c r="L52" s="131"/>
+      <c r="M52" s="131"/>
+      <c r="N52" s="128"/>
+      <c r="O52" s="133"/>
+    </row>
+    <row r="53" spans="1:15" s="125" customFormat="1">
+      <c r="A53" s="126">
         <v>51</v>
       </c>
-      <c r="B53" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="126" t="s">
+      <c r="B53" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="109">
         <v>42610</v>
       </c>
-      <c r="E53" s="128">
+      <c r="E53" s="129">
         <v>42612</v>
       </c>
-      <c r="F53" s="141" t="s">
+      <c r="F53" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="130"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="127"/>
-      <c r="O53" s="132"/>
-    </row>
-    <row r="54" spans="1:15" s="124" customFormat="1">
-      <c r="A54" s="125">
+      <c r="G53" s="131"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="131"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="133"/>
+    </row>
+    <row r="54" spans="1:15" s="125" customFormat="1">
+      <c r="A54" s="126">
         <v>52</v>
       </c>
-      <c r="B54" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="126" t="s">
+      <c r="B54" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="109">
         <v>42610</v>
       </c>
-      <c r="E54" s="128">
+      <c r="E54" s="129">
         <v>42612</v>
       </c>
-      <c r="F54" s="129" t="s">
+      <c r="F54" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="130" t="s">
+      <c r="G54" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="126"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="131"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="130"/>
-      <c r="M54" s="130"/>
-      <c r="N54" s="127"/>
-      <c r="O54" s="132"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="127"/>
+      <c r="L54" s="131"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="133"/>
     </row>
     <row r="55" spans="1:15" s="118" customFormat="1">
-      <c r="A55" s="125">
+      <c r="A55" s="126">
         <v>53</v>
       </c>
-      <c r="B55" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="126" t="s">
+      <c r="B55" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="109">
         <v>42610</v>
       </c>
-      <c r="E55" s="128">
+      <c r="E55" s="129">
         <v>42612</v>
       </c>
-      <c r="F55" s="129" t="s">
+      <c r="F55" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="130" t="s">
+      <c r="G55" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H55" s="126"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="131"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="130"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="127"/>
-      <c r="O55" s="132"/>
-    </row>
-    <row r="56" spans="1:15" s="124" customFormat="1" ht="27">
-      <c r="A56" s="125">
+      <c r="H55" s="127"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="131"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="133"/>
+    </row>
+    <row r="56" spans="1:15" s="125" customFormat="1" ht="27">
+      <c r="A56" s="126">
         <v>54</v>
       </c>
-      <c r="B56" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="126" t="s">
+      <c r="B56" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D56" s="109">
         <v>42610</v>
       </c>
-      <c r="E56" s="128">
+      <c r="E56" s="129">
         <v>42612</v>
       </c>
-      <c r="F56" s="129" t="s">
+      <c r="F56" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="G56" s="130"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="131"/>
-      <c r="J56" s="131"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="130"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="127"/>
-      <c r="O56" s="132"/>
-    </row>
-    <row r="57" spans="1:15" s="124" customFormat="1" ht="27">
-      <c r="A57" s="125">
+      <c r="G56" s="131"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="128"/>
+      <c r="O56" s="133"/>
+    </row>
+    <row r="57" spans="1:15" s="125" customFormat="1" ht="27">
+      <c r="A57" s="126">
         <v>55</v>
       </c>
-      <c r="B57" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="126" t="s">
+      <c r="B57" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="109">
         <v>42610</v>
       </c>
-      <c r="E57" s="128">
+      <c r="E57" s="129">
         <v>42612</v>
       </c>
-      <c r="F57" s="129" t="s">
+      <c r="F57" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="130" t="s">
+      <c r="G57" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="126"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="131"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="130"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="127"/>
-      <c r="O57" s="132"/>
-    </row>
-    <row r="58" spans="1:15" s="124" customFormat="1">
-      <c r="A58" s="125">
+      <c r="H57" s="127"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="131"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="128"/>
+      <c r="O57" s="133"/>
+    </row>
+    <row r="58" spans="1:15" s="125" customFormat="1">
+      <c r="A58" s="126">
         <v>56</v>
       </c>
-      <c r="B58" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="126" t="s">
+      <c r="B58" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="109">
         <v>42610</v>
       </c>
-      <c r="E58" s="128">
+      <c r="E58" s="129">
         <v>42612</v>
       </c>
-      <c r="F58" s="129" t="s">
+      <c r="F58" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="G58" s="130"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="131"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="130"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="127"/>
-      <c r="O58" s="132"/>
-    </row>
-    <row r="59" spans="1:15" s="124" customFormat="1" ht="27">
-      <c r="A59" s="125">
+      <c r="G58" s="131"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="131"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="133"/>
+    </row>
+    <row r="59" spans="1:15" s="125" customFormat="1" ht="27">
+      <c r="A59" s="126">
         <v>57</v>
       </c>
-      <c r="B59" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="126" t="s">
+      <c r="B59" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="109">
         <v>42610</v>
       </c>
-      <c r="E59" s="128">
+      <c r="E59" s="129">
         <v>42612</v>
       </c>
-      <c r="F59" s="129" t="s">
+      <c r="F59" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="130"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="131"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="130"/>
-      <c r="M59" s="130"/>
-      <c r="N59" s="127"/>
-      <c r="O59" s="132"/>
-    </row>
-    <row r="60" spans="1:15" s="124" customFormat="1">
-      <c r="A60" s="125">
+      <c r="G59" s="131"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="132"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="131"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="128"/>
+      <c r="O59" s="133"/>
+    </row>
+    <row r="60" spans="1:15" s="125" customFormat="1">
+      <c r="A60" s="126">
         <v>58</v>
       </c>
-      <c r="B60" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="126" t="s">
+      <c r="B60" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D60" s="109">
         <v>42610</v>
       </c>
-      <c r="E60" s="128">
+      <c r="E60" s="129">
         <v>42612</v>
       </c>
-      <c r="F60" s="129" t="s">
+      <c r="F60" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="G60" s="130"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="131"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="130"/>
-      <c r="M60" s="130"/>
-      <c r="N60" s="127"/>
-      <c r="O60" s="132"/>
-    </row>
-    <row r="61" spans="1:15" s="124" customFormat="1">
-      <c r="A61" s="125">
+      <c r="G60" s="131"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="132"/>
+      <c r="J60" s="132"/>
+      <c r="K60" s="127"/>
+      <c r="L60" s="131"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="128"/>
+      <c r="O60" s="133"/>
+    </row>
+    <row r="61" spans="1:15" s="125" customFormat="1">
+      <c r="A61" s="126">
         <v>59</v>
       </c>
-      <c r="B61" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="126" t="s">
+      <c r="B61" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="109">
         <v>42610</v>
       </c>
-      <c r="E61" s="128">
+      <c r="E61" s="129">
         <v>42612</v>
       </c>
-      <c r="F61" s="129" t="s">
+      <c r="F61" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="G61" s="130"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="131"/>
-      <c r="J61" s="131"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="130"/>
-      <c r="M61" s="130"/>
-      <c r="N61" s="127"/>
-      <c r="O61" s="132"/>
-    </row>
-    <row r="62" spans="1:15" s="124" customFormat="1">
-      <c r="A62" s="125">
+      <c r="G61" s="131"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="127"/>
+      <c r="L61" s="131"/>
+      <c r="M61" s="131"/>
+      <c r="N61" s="128"/>
+      <c r="O61" s="133"/>
+    </row>
+    <row r="62" spans="1:15" s="125" customFormat="1">
+      <c r="A62" s="126">
         <v>60</v>
       </c>
-      <c r="B62" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="126" t="s">
+      <c r="B62" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="109">
         <v>42610</v>
       </c>
-      <c r="E62" s="128">
+      <c r="E62" s="129">
         <v>42612</v>
       </c>
-      <c r="F62" s="129" t="s">
+      <c r="F62" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="G62" s="130"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="131"/>
-      <c r="J62" s="131"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="130"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="127"/>
-      <c r="O62" s="132"/>
-    </row>
-    <row r="63" spans="1:15" s="124" customFormat="1">
-      <c r="A63" s="125">
+      <c r="G62" s="131"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="132"/>
+      <c r="K62" s="127"/>
+      <c r="L62" s="131"/>
+      <c r="M62" s="131"/>
+      <c r="N62" s="128"/>
+      <c r="O62" s="133"/>
+    </row>
+    <row r="63" spans="1:15" s="125" customFormat="1">
+      <c r="A63" s="126">
         <v>61</v>
       </c>
-      <c r="B63" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="126" t="s">
+      <c r="B63" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D63" s="109">
         <v>42610</v>
       </c>
-      <c r="E63" s="128">
+      <c r="E63" s="129">
         <v>42612</v>
       </c>
-      <c r="F63" s="129" t="s">
+      <c r="F63" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="130" t="s">
+      <c r="G63" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H63" s="126"/>
-      <c r="I63" s="131"/>
-      <c r="J63" s="131"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="130"/>
-      <c r="M63" s="130"/>
-      <c r="N63" s="127"/>
-      <c r="O63" s="132"/>
-    </row>
-    <row r="64" spans="1:15" s="124" customFormat="1" ht="27">
-      <c r="A64" s="125">
+      <c r="H63" s="127"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="127"/>
+      <c r="L63" s="131"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="128"/>
+      <c r="O63" s="133"/>
+    </row>
+    <row r="64" spans="1:15" s="125" customFormat="1" ht="27">
+      <c r="A64" s="126">
         <v>62</v>
       </c>
-      <c r="B64" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="126" t="s">
+      <c r="B64" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D64" s="109">
         <v>42610</v>
       </c>
-      <c r="E64" s="128">
+      <c r="E64" s="129">
         <v>42612</v>
       </c>
-      <c r="F64" s="129" t="s">
+      <c r="F64" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="G64" s="130" t="s">
+      <c r="G64" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="126"/>
-      <c r="I64" s="131"/>
-      <c r="J64" s="131"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="130"/>
-      <c r="M64" s="130"/>
-      <c r="N64" s="127"/>
-      <c r="O64" s="132"/>
-    </row>
-    <row r="65" spans="1:15" s="124" customFormat="1">
-      <c r="A65" s="125">
+      <c r="H64" s="127"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="127"/>
+      <c r="L64" s="131"/>
+      <c r="M64" s="131"/>
+      <c r="N64" s="128"/>
+      <c r="O64" s="133"/>
+    </row>
+    <row r="65" spans="1:15" s="125" customFormat="1">
+      <c r="A65" s="126">
         <v>63</v>
       </c>
-      <c r="B65" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="126" t="s">
+      <c r="B65" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="109">
         <v>42610</v>
       </c>
-      <c r="E65" s="128">
+      <c r="E65" s="129">
         <v>42612</v>
       </c>
-      <c r="F65" s="129" t="s">
+      <c r="F65" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="G65" s="130" t="s">
+      <c r="G65" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H65" s="126"/>
-      <c r="I65" s="131"/>
-      <c r="J65" s="131"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="130"/>
-      <c r="M65" s="130"/>
-      <c r="N65" s="127"/>
-      <c r="O65" s="132"/>
-    </row>
-    <row r="66" spans="1:15" s="124" customFormat="1">
-      <c r="A66" s="125">
+      <c r="H65" s="127"/>
+      <c r="I65" s="132"/>
+      <c r="J65" s="132"/>
+      <c r="K65" s="127"/>
+      <c r="L65" s="131"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="128"/>
+      <c r="O65" s="133"/>
+    </row>
+    <row r="66" spans="1:15" s="125" customFormat="1">
+      <c r="A66" s="126">
         <v>64</v>
       </c>
-      <c r="B66" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="126" t="s">
+      <c r="B66" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="109">
         <v>42610</v>
       </c>
-      <c r="E66" s="128">
+      <c r="E66" s="129">
         <v>42612</v>
       </c>
-      <c r="F66" s="129" t="s">
+      <c r="F66" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="130" t="s">
+      <c r="G66" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H66" s="126"/>
-      <c r="I66" s="131"/>
-      <c r="J66" s="131"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="130"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="127"/>
-      <c r="O66" s="132"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="132"/>
+      <c r="J66" s="132"/>
+      <c r="K66" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="L66" s="131"/>
+      <c r="M66" s="131"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="133"/>
     </row>
     <row r="67" spans="1:15" customFormat="1" ht="27">
-      <c r="A67" s="125">
+      <c r="A67" s="126">
         <v>65</v>
       </c>
-      <c r="B67" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="126" t="s">
+      <c r="B67" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="109">
         <v>42610</v>
       </c>
-      <c r="E67" s="128">
+      <c r="E67" s="129">
         <v>42612</v>
       </c>
-      <c r="F67" s="129" t="s">
+      <c r="F67" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="G67" s="130" t="s">
+      <c r="G67" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H67" s="126"/>
-      <c r="I67" s="131"/>
-      <c r="J67" s="131"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="130"/>
-      <c r="M67" s="130"/>
-      <c r="N67" s="127"/>
-      <c r="O67" s="132"/>
+      <c r="H67" s="127"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="L67" s="131"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="128"/>
+      <c r="O67" s="133"/>
     </row>
     <row r="68" spans="1:15" s="67" customFormat="1" ht="27">
-      <c r="A68" s="125">
+      <c r="A68" s="126">
         <v>66</v>
       </c>
-      <c r="B68" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="126" t="s">
+      <c r="B68" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="66">
@@ -6040,420 +6037,436 @@
       <c r="E68" s="25">
         <v>42612</v>
       </c>
-      <c r="F68" s="129" t="s">
+      <c r="F68" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="G68" s="130" t="s">
+      <c r="G68" s="131" t="s">
         <v>97</v>
       </c>
       <c r="H68" s="23"/>
       <c r="I68" s="28"/>
       <c r="J68" s="28"/>
-      <c r="K68" s="23"/>
+      <c r="K68" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L68" s="27"/>
       <c r="M68" s="27"/>
       <c r="N68" s="24"/>
       <c r="O68" s="29"/>
     </row>
-    <row r="69" spans="1:15" s="124" customFormat="1">
-      <c r="A69" s="125">
+    <row r="69" spans="1:15" s="125" customFormat="1">
+      <c r="A69" s="126">
         <v>67</v>
       </c>
-      <c r="B69" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="126" t="s">
+      <c r="B69" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D69" s="109">
         <v>42610</v>
       </c>
-      <c r="E69" s="128">
+      <c r="E69" s="129">
         <v>42612</v>
       </c>
-      <c r="F69" s="129" t="s">
+      <c r="F69" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="G69" s="130" t="s">
+      <c r="G69" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H69" s="126"/>
-      <c r="I69" s="131"/>
-      <c r="J69" s="131"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="130"/>
-      <c r="M69" s="130"/>
-      <c r="N69" s="127"/>
-      <c r="O69" s="132"/>
-    </row>
-    <row r="70" spans="1:15" s="124" customFormat="1">
-      <c r="A70" s="125">
+      <c r="H69" s="127"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="L69" s="131"/>
+      <c r="M69" s="131"/>
+      <c r="N69" s="128"/>
+      <c r="O69" s="133"/>
+    </row>
+    <row r="70" spans="1:15" s="125" customFormat="1">
+      <c r="A70" s="126">
         <v>68</v>
       </c>
-      <c r="B70" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="126" t="s">
+      <c r="B70" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="109">
         <v>42610</v>
       </c>
-      <c r="E70" s="128">
+      <c r="E70" s="129">
         <v>42612</v>
       </c>
-      <c r="F70" s="129" t="s">
+      <c r="F70" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="G70" s="130" t="s">
+      <c r="G70" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H70" s="126"/>
-      <c r="I70" s="131"/>
-      <c r="J70" s="131"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="130"/>
-      <c r="M70" s="130"/>
-      <c r="N70" s="127"/>
-      <c r="O70" s="132"/>
-    </row>
-    <row r="71" spans="1:15" s="124" customFormat="1">
-      <c r="A71" s="125">
+      <c r="H70" s="127"/>
+      <c r="I70" s="132"/>
+      <c r="J70" s="132"/>
+      <c r="K70" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="L70" s="131"/>
+      <c r="M70" s="131"/>
+      <c r="N70" s="128"/>
+      <c r="O70" s="133"/>
+    </row>
+    <row r="71" spans="1:15" s="125" customFormat="1">
+      <c r="A71" s="126">
         <v>69</v>
       </c>
-      <c r="B71" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" s="126" t="s">
+      <c r="B71" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="109">
         <v>42610</v>
       </c>
-      <c r="E71" s="128">
+      <c r="E71" s="129">
         <v>42612</v>
       </c>
-      <c r="F71" s="129" t="s">
+      <c r="F71" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="G71" s="130" t="s">
+      <c r="G71" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H71" s="126"/>
-      <c r="I71" s="131"/>
-      <c r="J71" s="131"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="130"/>
-      <c r="M71" s="130"/>
-      <c r="N71" s="127"/>
-      <c r="O71" s="132"/>
-    </row>
-    <row r="72" spans="1:15" s="124" customFormat="1">
-      <c r="A72" s="125">
+      <c r="H71" s="127"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="L71" s="131"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="128"/>
+      <c r="O71" s="133"/>
+    </row>
+    <row r="72" spans="1:15" s="125" customFormat="1">
+      <c r="A72" s="126">
         <v>70</v>
       </c>
-      <c r="B72" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="126" t="s">
+      <c r="B72" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="109">
         <v>42610</v>
       </c>
-      <c r="E72" s="128">
+      <c r="E72" s="129">
         <v>42612</v>
       </c>
-      <c r="F72" s="129" t="s">
+      <c r="F72" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="G72" s="130" t="s">
+      <c r="G72" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H72" s="126"/>
-      <c r="I72" s="131"/>
-      <c r="J72" s="131"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="130"/>
-      <c r="M72" s="130"/>
-      <c r="N72" s="127"/>
-      <c r="O72" s="132"/>
-    </row>
-    <row r="73" spans="1:15" s="124" customFormat="1" ht="27">
-      <c r="A73" s="125">
+      <c r="H72" s="127"/>
+      <c r="I72" s="132"/>
+      <c r="J72" s="132"/>
+      <c r="K72" s="127"/>
+      <c r="L72" s="131"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="128"/>
+      <c r="O72" s="133"/>
+    </row>
+    <row r="73" spans="1:15" s="125" customFormat="1" ht="27">
+      <c r="A73" s="126">
         <v>71</v>
       </c>
-      <c r="B73" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="126" t="s">
+      <c r="B73" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D73" s="109">
         <v>42610</v>
       </c>
-      <c r="E73" s="128">
+      <c r="E73" s="129">
         <v>42612</v>
       </c>
-      <c r="F73" s="129" t="s">
+      <c r="F73" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="G73" s="130" t="s">
+      <c r="G73" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H73" s="126"/>
-      <c r="I73" s="131"/>
-      <c r="J73" s="131"/>
-      <c r="K73" s="126"/>
-      <c r="L73" s="130"/>
-      <c r="M73" s="130"/>
-      <c r="N73" s="127"/>
-      <c r="O73" s="132"/>
-    </row>
-    <row r="74" spans="1:15" s="124" customFormat="1">
-      <c r="A74" s="125">
+      <c r="H73" s="127"/>
+      <c r="I73" s="132"/>
+      <c r="J73" s="132"/>
+      <c r="K73" s="127"/>
+      <c r="L73" s="131"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="128"/>
+      <c r="O73" s="133"/>
+    </row>
+    <row r="74" spans="1:15" s="125" customFormat="1">
+      <c r="A74" s="126">
         <v>72</v>
       </c>
-      <c r="B74" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="126" t="s">
+      <c r="B74" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="109">
         <v>42610</v>
       </c>
-      <c r="E74" s="128">
+      <c r="E74" s="129">
         <v>42612</v>
       </c>
-      <c r="F74" s="129" t="s">
+      <c r="F74" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="G74" s="130" t="s">
+      <c r="G74" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H74" s="126"/>
-      <c r="I74" s="131"/>
-      <c r="J74" s="131"/>
-      <c r="K74" s="126"/>
-      <c r="L74" s="130"/>
-      <c r="M74" s="130"/>
-      <c r="N74" s="127"/>
-      <c r="O74" s="132"/>
-    </row>
-    <row r="75" spans="1:15" s="124" customFormat="1">
-      <c r="A75" s="125">
+      <c r="H74" s="127"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="132"/>
+      <c r="K74" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="L74" s="131"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="128"/>
+      <c r="O74" s="133"/>
+    </row>
+    <row r="75" spans="1:15" s="125" customFormat="1">
+      <c r="A75" s="126">
         <v>73</v>
       </c>
-      <c r="B75" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="126" t="s">
+      <c r="B75" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D75" s="109">
         <v>42610</v>
       </c>
-      <c r="E75" s="128">
+      <c r="E75" s="129">
         <v>42612</v>
       </c>
-      <c r="F75" s="129" t="s">
+      <c r="F75" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="130" t="s">
+      <c r="G75" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="H75" s="126"/>
-      <c r="I75" s="131"/>
-      <c r="J75" s="131"/>
-      <c r="K75" s="126"/>
-      <c r="L75" s="130"/>
-      <c r="M75" s="130"/>
-      <c r="N75" s="127"/>
-      <c r="O75" s="132"/>
-    </row>
-    <row r="76" spans="1:15" s="124" customFormat="1">
-      <c r="A76" s="125">
+      <c r="H75" s="127"/>
+      <c r="I75" s="132"/>
+      <c r="J75" s="132"/>
+      <c r="K75" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="L75" s="131"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="128"/>
+      <c r="O75" s="133"/>
+    </row>
+    <row r="76" spans="1:15" s="125" customFormat="1">
+      <c r="A76" s="126">
         <v>75</v>
       </c>
-      <c r="B76" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="126" t="s">
+      <c r="B76" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D76" s="109">
         <v>42610</v>
       </c>
-      <c r="E76" s="128">
+      <c r="E76" s="129">
         <v>42612</v>
       </c>
-      <c r="F76" s="129" t="s">
+      <c r="F76" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="G76" s="130"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="131"/>
-      <c r="J76" s="131"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="130"/>
-      <c r="M76" s="130"/>
-      <c r="N76" s="127"/>
-      <c r="O76" s="132"/>
-    </row>
-    <row r="77" spans="1:15" s="124" customFormat="1">
-      <c r="A77" s="125">
+      <c r="G76" s="131"/>
+      <c r="H76" s="127"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="132"/>
+      <c r="K76" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="L76" s="131"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="128"/>
+      <c r="O76" s="133"/>
+    </row>
+    <row r="77" spans="1:15" s="125" customFormat="1">
+      <c r="A77" s="126">
         <v>75</v>
       </c>
-      <c r="B77" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="126" t="s">
+      <c r="B77" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D77" s="109">
         <v>42610</v>
       </c>
-      <c r="E77" s="128">
+      <c r="E77" s="129">
         <v>42612</v>
       </c>
-      <c r="F77" s="129" t="s">
+      <c r="F77" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="G77" s="130"/>
-      <c r="H77" s="126"/>
-      <c r="I77" s="131"/>
-      <c r="J77" s="131"/>
-      <c r="K77" s="126"/>
-      <c r="L77" s="130"/>
-      <c r="M77" s="130"/>
-      <c r="N77" s="127"/>
-      <c r="O77" s="132"/>
-    </row>
-    <row r="78" spans="1:15" s="124" customFormat="1" ht="27">
-      <c r="A78" s="125">
+      <c r="G77" s="131"/>
+      <c r="H77" s="127"/>
+      <c r="I77" s="132"/>
+      <c r="J77" s="132"/>
+      <c r="K77" s="127"/>
+      <c r="L77" s="131"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="128"/>
+      <c r="O77" s="133"/>
+    </row>
+    <row r="78" spans="1:15" s="125" customFormat="1" ht="27">
+      <c r="A78" s="126">
         <v>74</v>
       </c>
-      <c r="B78" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="126" t="s">
+      <c r="B78" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="109">
         <v>42610</v>
       </c>
-      <c r="E78" s="128">
+      <c r="E78" s="129">
         <v>42612</v>
       </c>
-      <c r="F78" s="129" t="s">
+      <c r="F78" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="G78" s="130"/>
-      <c r="H78" s="126"/>
-      <c r="I78" s="131"/>
-      <c r="J78" s="131"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="130"/>
-      <c r="M78" s="130"/>
-      <c r="N78" s="127"/>
-      <c r="O78" s="132"/>
-    </row>
-    <row r="79" spans="1:15" s="124" customFormat="1" ht="40.5">
-      <c r="A79" s="125">
+      <c r="G78" s="131"/>
+      <c r="H78" s="127"/>
+      <c r="I78" s="132"/>
+      <c r="J78" s="132"/>
+      <c r="K78" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="L78" s="131"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="128"/>
+      <c r="O78" s="133"/>
+    </row>
+    <row r="79" spans="1:15" s="125" customFormat="1" ht="40.5">
+      <c r="A79" s="126">
         <v>75</v>
       </c>
-      <c r="B79" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="126" t="s">
+      <c r="B79" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="109">
         <v>42610</v>
       </c>
-      <c r="E79" s="128">
+      <c r="E79" s="129">
         <v>42612</v>
       </c>
-      <c r="F79" s="129" t="s">
+      <c r="F79" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="G79" s="130"/>
-      <c r="H79" s="126"/>
-      <c r="I79" s="131"/>
-      <c r="J79" s="131"/>
-      <c r="K79" s="126"/>
-      <c r="L79" s="130"/>
-      <c r="M79" s="130"/>
-      <c r="N79" s="127"/>
-      <c r="O79" s="132"/>
-    </row>
-    <row r="80" spans="1:15" s="124" customFormat="1" ht="27">
-      <c r="A80" s="125">
+      <c r="G79" s="131"/>
+      <c r="H79" s="127"/>
+      <c r="I79" s="132"/>
+      <c r="J79" s="132"/>
+      <c r="K79" s="127"/>
+      <c r="L79" s="131"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="128"/>
+      <c r="O79" s="133"/>
+    </row>
+    <row r="80" spans="1:15" s="125" customFormat="1" ht="27">
+      <c r="A80" s="126">
         <v>76</v>
       </c>
-      <c r="B80" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" s="126" t="s">
+      <c r="B80" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D80" s="109">
         <v>42610</v>
       </c>
-      <c r="E80" s="128">
+      <c r="E80" s="129">
         <v>42612</v>
       </c>
-      <c r="F80" s="129" t="s">
+      <c r="F80" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="G80" s="130"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="131"/>
-      <c r="J80" s="131"/>
-      <c r="K80" s="126"/>
-      <c r="L80" s="130"/>
-      <c r="M80" s="130"/>
-      <c r="N80" s="127"/>
-      <c r="O80" s="132"/>
-    </row>
-    <row r="81" spans="1:15" s="124" customFormat="1">
-      <c r="A81" s="125">
+      <c r="G80" s="131"/>
+      <c r="H80" s="127"/>
+      <c r="I80" s="132"/>
+      <c r="J80" s="132"/>
+      <c r="K80" s="127"/>
+      <c r="L80" s="131"/>
+      <c r="M80" s="131"/>
+      <c r="N80" s="128"/>
+      <c r="O80" s="133"/>
+    </row>
+    <row r="81" spans="1:15" s="125" customFormat="1">
+      <c r="A81" s="126">
         <v>76</v>
       </c>
-      <c r="B81" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="126" t="s">
+      <c r="B81" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="109">
         <v>42610</v>
       </c>
-      <c r="E81" s="128">
+      <c r="E81" s="129">
         <v>42612</v>
       </c>
-      <c r="F81" s="129" t="s">
+      <c r="F81" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="G81" s="130"/>
-      <c r="H81" s="126"/>
-      <c r="I81" s="131"/>
-      <c r="J81" s="131"/>
-      <c r="K81" s="126"/>
-      <c r="L81" s="130"/>
-      <c r="M81" s="130"/>
-      <c r="N81" s="127"/>
-      <c r="O81" s="132"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="127"/>
+      <c r="I81" s="132"/>
+      <c r="J81" s="132"/>
+      <c r="K81" s="127"/>
+      <c r="L81" s="131"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="128"/>
+      <c r="O81" s="133"/>
     </row>
     <row r="82" spans="1:15" s="67" customFormat="1" ht="54">
-      <c r="A82" s="125">
+      <c r="A82" s="126">
         <v>77</v>
       </c>
-      <c r="B82" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="126" t="s">
+      <c r="B82" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="127" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="66">
@@ -6462,10 +6475,10 @@
       <c r="E82" s="25">
         <v>42612</v>
       </c>
-      <c r="F82" s="129" t="s">
+      <c r="F82" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="G82" s="130" t="s">
+      <c r="G82" s="131" t="s">
         <v>97</v>
       </c>
       <c r="H82" s="23"/>
@@ -6477,8 +6490,8 @@
       <c r="N82" s="24"/>
       <c r="O82" s="29"/>
     </row>
-    <row r="83" spans="1:15" s="118" customFormat="1" ht="27" hidden="1">
-      <c r="A83" s="125">
+    <row r="83" spans="1:15" s="118" customFormat="1" ht="27">
+      <c r="A83" s="126">
         <v>78</v>
       </c>
       <c r="B83" s="119" t="s">
@@ -6493,26 +6506,22 @@
       <c r="E83" s="121">
         <v>42612</v>
       </c>
-      <c r="F83" s="129" t="s">
+      <c r="F83" s="130" t="s">
         <v>125</v>
       </c>
       <c r="G83" s="122"/>
-      <c r="H83" s="119"/>
+      <c r="H83" s="127" t="s">
+        <v>152</v>
+      </c>
       <c r="I83" s="123"/>
       <c r="J83" s="123"/>
-      <c r="K83" s="126" t="s">
-        <v>152</v>
+      <c r="K83" s="127" t="s">
+        <v>154</v>
       </c>
       <c r="L83" s="122"/>
-      <c r="M83" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="N83" s="120">
-        <v>42616</v>
-      </c>
-      <c r="O83" s="132" t="s">
-        <v>155</v>
-      </c>
+      <c r="M83" s="122"/>
+      <c r="N83" s="120"/>
+      <c r="O83" s="124"/>
     </row>
     <row r="84" spans="1:15" s="4" customFormat="1">
       <c r="A84" s="44"/>
@@ -6546,11 +6555,7 @@
       <c r="F90" s="77"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O83">
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:O83"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K83">
@@ -8234,7 +8239,7 @@
       <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" ht="27">
-      <c r="A14" s="125">
+      <c r="A14" s="126">
         <v>8</v>
       </c>
       <c r="B14" s="102" t="s">
@@ -8249,7 +8254,7 @@
       <c r="E14" s="104">
         <v>42612</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="130" t="s">
         <v>124</v>
       </c>
       <c r="G14" s="105"/>
@@ -8263,33 +8268,33 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="125">
+      <c r="A15" s="126">
         <v>8</v>
       </c>
-      <c r="B15" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="126" t="s">
+      <c r="B15" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="127">
+      <c r="D15" s="128">
         <v>42610</v>
       </c>
-      <c r="E15" s="128">
+      <c r="E15" s="129">
         <v>42612</v>
       </c>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="132"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="133"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="44"/>

--- a/测试单-电子书_160901.xlsx
+++ b/测试单-电子书_160901.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="155">
   <si>
     <t>编号</t>
   </si>
@@ -3974,10 +3974,10 @@
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4227,7 +4227,9 @@
       <c r="H8" s="23"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="23"/>
+      <c r="K8" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
       <c r="N8" s="24"/>
@@ -5251,7 +5253,9 @@
       <c r="H42" s="23"/>
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
-      <c r="K42" s="23"/>
+      <c r="K42" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L42" s="27"/>
       <c r="M42" s="27"/>
       <c r="N42" s="24"/>
@@ -5711,7 +5715,9 @@
       <c r="H57" s="127"/>
       <c r="I57" s="132"/>
       <c r="J57" s="132"/>
-      <c r="K57" s="127"/>
+      <c r="K57" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L57" s="131"/>
       <c r="M57" s="131"/>
       <c r="N57" s="128"/>
@@ -5740,7 +5746,9 @@
       <c r="H58" s="127"/>
       <c r="I58" s="132"/>
       <c r="J58" s="132"/>
-      <c r="K58" s="127"/>
+      <c r="K58" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L58" s="131"/>
       <c r="M58" s="131"/>
       <c r="N58" s="128"/>
@@ -5769,7 +5777,9 @@
       <c r="H59" s="127"/>
       <c r="I59" s="132"/>
       <c r="J59" s="132"/>
-      <c r="K59" s="127"/>
+      <c r="K59" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L59" s="131"/>
       <c r="M59" s="131"/>
       <c r="N59" s="128"/>
@@ -5887,7 +5897,9 @@
       <c r="H63" s="127"/>
       <c r="I63" s="132"/>
       <c r="J63" s="132"/>
-      <c r="K63" s="127"/>
+      <c r="K63" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L63" s="131"/>
       <c r="M63" s="131"/>
       <c r="N63" s="128"/>
@@ -5949,7 +5961,9 @@
       <c r="H65" s="127"/>
       <c r="I65" s="132"/>
       <c r="J65" s="132"/>
-      <c r="K65" s="127"/>
+      <c r="K65" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L65" s="131"/>
       <c r="M65" s="131"/>
       <c r="N65" s="128"/>
@@ -6335,7 +6349,9 @@
       <c r="H77" s="127"/>
       <c r="I77" s="132"/>
       <c r="J77" s="132"/>
-      <c r="K77" s="127"/>
+      <c r="K77" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="L77" s="131"/>
       <c r="M77" s="131"/>
       <c r="N77" s="128"/>

--- a/测试单-电子书_160901.xlsx
+++ b/测试单-电子书_160901.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="154">
   <si>
     <t>编号</t>
   </si>
@@ -2845,10 +2845,6 @@
   </si>
   <si>
     <t>【背景音乐】目前好像没有自动创建文件夹。我测试时自己建的文件夹然后复制文件的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法复现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3974,10 +3970,10 @@
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4072,7 +4068,9 @@
       <c r="H3" s="23"/>
       <c r="I3" s="28"/>
       <c r="J3" s="66"/>
-      <c r="K3" s="23"/>
+      <c r="K3" s="127" t="s">
+        <v>152</v>
+      </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3" s="24"/>
@@ -4105,7 +4103,9 @@
       <c r="J4" s="86">
         <v>42610</v>
       </c>
-      <c r="K4" s="85"/>
+      <c r="K4" s="85" t="s">
+        <v>152</v>
+      </c>
       <c r="L4" s="89"/>
       <c r="M4" s="89"/>
       <c r="N4" s="86"/>
@@ -4138,7 +4138,9 @@
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="23"/>
+      <c r="K5" s="127" t="s">
+        <v>152</v>
+      </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
       <c r="N5" s="24"/>
@@ -4228,7 +4230,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
@@ -5221,7 +5223,7 @@
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
       <c r="K41" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
@@ -5254,7 +5256,7 @@
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
       <c r="K42" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L42" s="27"/>
       <c r="M42" s="27"/>
@@ -5287,7 +5289,7 @@
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
       <c r="K43" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L43" s="27"/>
       <c r="M43" s="27"/>
@@ -5346,7 +5348,7 @@
       <c r="H45" s="23"/>
       <c r="I45" s="28"/>
       <c r="K45" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L45" s="27"/>
       <c r="M45" s="27"/>
@@ -5377,7 +5379,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
       <c r="K46" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
@@ -5408,7 +5410,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
       <c r="K47" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
@@ -5563,7 +5565,7 @@
       <c r="I52" s="132"/>
       <c r="J52" s="132"/>
       <c r="K52" s="127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L52" s="131"/>
       <c r="M52" s="131"/>
@@ -5716,7 +5718,7 @@
       <c r="I57" s="132"/>
       <c r="J57" s="132"/>
       <c r="K57" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L57" s="131"/>
       <c r="M57" s="131"/>
@@ -5747,7 +5749,7 @@
       <c r="I58" s="132"/>
       <c r="J58" s="132"/>
       <c r="K58" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L58" s="131"/>
       <c r="M58" s="131"/>
@@ -5778,7 +5780,7 @@
       <c r="I59" s="132"/>
       <c r="J59" s="132"/>
       <c r="K59" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L59" s="131"/>
       <c r="M59" s="131"/>
@@ -5898,7 +5900,7 @@
       <c r="I63" s="132"/>
       <c r="J63" s="132"/>
       <c r="K63" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L63" s="131"/>
       <c r="M63" s="131"/>
@@ -5962,7 +5964,7 @@
       <c r="I65" s="132"/>
       <c r="J65" s="132"/>
       <c r="K65" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L65" s="131"/>
       <c r="M65" s="131"/>
@@ -5995,7 +5997,7 @@
       <c r="I66" s="132"/>
       <c r="J66" s="132"/>
       <c r="K66" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L66" s="131"/>
       <c r="M66" s="131"/>
@@ -6028,7 +6030,7 @@
       <c r="I67" s="132"/>
       <c r="J67" s="132"/>
       <c r="K67" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L67" s="131"/>
       <c r="M67" s="131"/>
@@ -6061,7 +6063,7 @@
       <c r="I68" s="28"/>
       <c r="J68" s="28"/>
       <c r="K68" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L68" s="27"/>
       <c r="M68" s="27"/>
@@ -6094,7 +6096,7 @@
       <c r="I69" s="132"/>
       <c r="J69" s="132"/>
       <c r="K69" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L69" s="131"/>
       <c r="M69" s="131"/>
@@ -6127,7 +6129,7 @@
       <c r="I70" s="132"/>
       <c r="J70" s="132"/>
       <c r="K70" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L70" s="131"/>
       <c r="M70" s="131"/>
@@ -6160,7 +6162,7 @@
       <c r="I71" s="132"/>
       <c r="J71" s="132"/>
       <c r="K71" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L71" s="131"/>
       <c r="M71" s="131"/>
@@ -6223,7 +6225,9 @@
       <c r="H73" s="127"/>
       <c r="I73" s="132"/>
       <c r="J73" s="132"/>
-      <c r="K73" s="127"/>
+      <c r="K73" s="127" t="s">
+        <v>152</v>
+      </c>
       <c r="L73" s="131"/>
       <c r="M73" s="131"/>
       <c r="N73" s="128"/>
@@ -6255,7 +6259,7 @@
       <c r="I74" s="132"/>
       <c r="J74" s="132"/>
       <c r="K74" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L74" s="131"/>
       <c r="M74" s="131"/>
@@ -6288,7 +6292,7 @@
       <c r="I75" s="132"/>
       <c r="J75" s="132"/>
       <c r="K75" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L75" s="131"/>
       <c r="M75" s="131"/>
@@ -6319,7 +6323,7 @@
       <c r="I76" s="132"/>
       <c r="J76" s="132"/>
       <c r="K76" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L76" s="131"/>
       <c r="M76" s="131"/>
@@ -6350,7 +6354,7 @@
       <c r="I77" s="132"/>
       <c r="J77" s="132"/>
       <c r="K77" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L77" s="131"/>
       <c r="M77" s="131"/>
@@ -6381,7 +6385,7 @@
       <c r="I78" s="132"/>
       <c r="J78" s="132"/>
       <c r="K78" s="127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L78" s="131"/>
       <c r="M78" s="131"/>
@@ -6526,13 +6530,11 @@
         <v>125</v>
       </c>
       <c r="G83" s="122"/>
-      <c r="H83" s="127" t="s">
-        <v>152</v>
-      </c>
+      <c r="H83" s="127"/>
       <c r="I83" s="123"/>
       <c r="J83" s="123"/>
       <c r="K83" s="127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L83" s="122"/>
       <c r="M83" s="122"/>

--- a/测试单-电子书_160901.xlsx
+++ b/测试单-电子书_160901.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="154">
   <si>
     <t>编号</t>
   </si>
@@ -3970,10 +3970,10 @@
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
+      <selection pane="bottomRight" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6194,7 +6194,9 @@
       <c r="H72" s="127"/>
       <c r="I72" s="132"/>
       <c r="J72" s="132"/>
-      <c r="K72" s="127"/>
+      <c r="K72" s="127" t="s">
+        <v>152</v>
+      </c>
       <c r="L72" s="131"/>
       <c r="M72" s="131"/>
       <c r="N72" s="128"/>

--- a/测试单-电子书_160901.xlsx
+++ b/测试单-电子书_160901.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="155">
   <si>
     <t>编号</t>
   </si>
@@ -2852,6 +2852,10 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径没有做文件存在的判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3970,10 +3974,10 @@
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K72" sqref="K72"/>
+      <selection pane="bottomRight" activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6417,9 +6421,13 @@
       <c r="H79" s="127"/>
       <c r="I79" s="132"/>
       <c r="J79" s="132"/>
-      <c r="K79" s="127"/>
+      <c r="K79" s="127" t="s">
+        <v>152</v>
+      </c>
       <c r="L79" s="131"/>
-      <c r="M79" s="131"/>
+      <c r="M79" s="131" t="s">
+        <v>154</v>
+      </c>
       <c r="N79" s="128"/>
       <c r="O79" s="133"/>
     </row>
